--- a/Python code - Structural Macroeconometrics- Final Project/Data/Var_data.xlsx
+++ b/Python code - Structural Macroeconometrics- Final Project/Data/Var_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:F313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>HICP_FE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>HICP</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>GDP_Index</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>3monthrate</t>
         </is>
@@ -468,12 +473,15 @@
         <v>-0.02422855693239789</v>
       </c>
       <c r="C2" t="n">
+        <v>0.09398227153694094</v>
+      </c>
+      <c r="D2" t="n">
         <v>-0.1257421168696812</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1626696050990084</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.009999999999999787</v>
       </c>
     </row>
@@ -485,12 +493,15 @@
         <v>0.0162796481404186</v>
       </c>
       <c r="C3" t="n">
+        <v>0.175164384384896</v>
+      </c>
+      <c r="D3" t="n">
         <v>-0.2413397269310009</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.4769050616928006</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.01999999999999957</v>
       </c>
     </row>
@@ -502,12 +513,15 @@
         <v>0.001818479040744059</v>
       </c>
       <c r="C4" t="n">
+        <v>0.04725962424743102</v>
+      </c>
+      <c r="D4" t="n">
         <v>-0.239892790984626</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.7811995948975081</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.2000000000000002</v>
       </c>
     </row>
@@ -519,12 +533,15 @@
         <v>0.03231484055074052</v>
       </c>
       <c r="C5" t="n">
+        <v>-0.5774599480636411</v>
+      </c>
+      <c r="D5" t="n">
         <v>-0.1042501257610215</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>1.036944712216048</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-0.01999999999999957</v>
       </c>
     </row>
@@ -536,12 +553,15 @@
         <v>0.02854542030066476</v>
       </c>
       <c r="C6" t="n">
+        <v>0.4142970140493141</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.03365141490721635</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1.199831867620205</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.1600000000000001</v>
       </c>
     </row>
@@ -553,12 +573,15 @@
         <v>-0.0004384426587247248</v>
       </c>
       <c r="C7" t="n">
+        <v>0.4008758923441214</v>
+      </c>
+      <c r="D7" t="n">
         <v>-0.1166475388792898</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1.240044578546584</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.4100000000000001</v>
       </c>
     </row>
@@ -570,12 +593,15 @@
         <v>-0.0346685325092615</v>
       </c>
       <c r="C8" t="n">
+        <v>-0.01622610060030283</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.008762821144387214</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1.168934367212415</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.009999999999999787</v>
       </c>
     </row>
@@ -587,12 +613,15 @@
         <v>-0.03060993107524812</v>
       </c>
       <c r="C9" t="n">
+        <v>-0.2620441181161226</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.116020395797942</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1.01497057650386</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.04000000000000004</v>
       </c>
     </row>
@@ -604,12 +633,15 @@
         <v>-0.04656905808113976</v>
       </c>
       <c r="C10" t="n">
+        <v>-0.08375736522117094</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.2140916567151227</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.8076906086761149</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-0.5099999999999998</v>
       </c>
     </row>
@@ -621,12 +653,15 @@
         <v>-0.005508030055976221</v>
       </c>
       <c r="C11" t="n">
+        <v>0.5744400719725817</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.04977389440893451</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.56765620803505</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>-0.3899999999999997</v>
       </c>
     </row>
@@ -638,12 +673,15 @@
         <v>-0.01811355256449509</v>
       </c>
       <c r="C12" t="n">
+        <v>-0.2087658029444661</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.04723434113475394</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.3058547368467224</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-0.1200000000000001</v>
       </c>
     </row>
@@ -655,12 +693,15 @@
         <v>-0.04677351864121793</v>
       </c>
       <c r="C13" t="n">
+        <v>0.06626106241887086</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.05665208347917844</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.02554838272672555</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.009999999999999787</v>
       </c>
     </row>
@@ -672,12 +713,15 @@
         <v>-0.03763913983148814</v>
       </c>
       <c r="C14" t="n">
+        <v>0.2530446435833333</v>
+      </c>
+      <c r="D14" t="n">
         <v>-0.07470728094630631</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-0.2742257817547333</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>-0.2400000000000002</v>
       </c>
     </row>
@@ -689,12 +733,15 @@
         <v>-0.01741666600086322</v>
       </c>
       <c r="C15" t="n">
+        <v>0.02002057481433894</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.2271786179563301</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-0.5903500057772071</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.009999999999999787</v>
       </c>
     </row>
@@ -706,12 +753,15 @@
         <v>0.01725273605322641</v>
       </c>
       <c r="C16" t="n">
+        <v>-0.1093574790270502</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.1364371000758992</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-0.9058569640013836</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.08000000000000007</v>
       </c>
     </row>
@@ -723,12 +773,15 @@
         <v>0.03838172783467275</v>
       </c>
       <c r="C17" t="n">
+        <v>-0.5789363151180282</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.04855035083282475</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-1.178928829570047</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>-0.4399999999999995</v>
       </c>
     </row>
@@ -740,12 +793,15 @@
         <v>0.004564900232323588</v>
       </c>
       <c r="C18" t="n">
+        <v>-0.2119272617243873</v>
+      </c>
+      <c r="D18" t="n">
         <v>-0.04171051017741456</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-1.363574236874676</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-0.5800000000000001</v>
       </c>
     </row>
@@ -757,12 +813,15 @@
         <v>-0.02325008741155354</v>
       </c>
       <c r="C19" t="n">
+        <v>0.401120033267155</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.01316927082028784</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-1.433168939351415</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-0.5700000000000003</v>
       </c>
     </row>
@@ -774,12 +833,15 @@
         <v>-0.007205881900715028</v>
       </c>
       <c r="C20" t="n">
+        <v>-0.6395252165869891</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.04235038017884503</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-1.410123646031192</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>-0.2479</v>
       </c>
     </row>
@@ -791,12 +853,15 @@
         <v>-0.04735560618246115</v>
       </c>
       <c r="C21" t="n">
+        <v>0.2058563228708898</v>
+      </c>
+      <c r="D21" t="n">
         <v>-0.06422572378985639</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>-1.334400553188964</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>-0.03869999999999996</v>
       </c>
     </row>
@@ -808,12 +873,15 @@
         <v>0.02723990705533108</v>
       </c>
       <c r="C22" t="n">
+        <v>0.3834114212395434</v>
+      </c>
+      <c r="D22" t="n">
         <v>-0.1562383499654214</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-1.238666180918813</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>-0.04669999999999996</v>
       </c>
     </row>
@@ -825,12 +893,15 @@
         <v>0.0594837795437666</v>
       </c>
       <c r="C23" t="n">
+        <v>1.193395228672323</v>
+      </c>
+      <c r="D23" t="n">
         <v>-0.1326571083916151</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-1.127237928417468</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>-0.3502000000000001</v>
       </c>
     </row>
@@ -842,12 +913,15 @@
         <v>-0.005880380174200006</v>
       </c>
       <c r="C24" t="n">
+        <v>0.09940085079636063</v>
+      </c>
+      <c r="D24" t="n">
         <v>-0.2584980259583977</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>-0.9873441715510189</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>-0.1174999999999997</v>
       </c>
     </row>
@@ -859,12 +933,15 @@
         <v>-0.008333163182319581</v>
       </c>
       <c r="C25" t="n">
+        <v>-0.2419055913219559</v>
+      </c>
+      <c r="D25" t="n">
         <v>-0.1088057868226569</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>-0.8014532125304008</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.04769999999999985</v>
       </c>
     </row>
@@ -876,12 +953,15 @@
         <v>0.09888731766094949</v>
       </c>
       <c r="C26" t="n">
+        <v>0.5645713752782555</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.170249565117055</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>-0.5615916011882938</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.04979999999999984</v>
       </c>
     </row>
@@ -893,12 +973,15 @@
         <v>0.03669449496639743</v>
       </c>
       <c r="C27" t="n">
+        <v>0.3325208291278692</v>
+      </c>
+      <c r="D27" t="n">
         <v>-0.1078147207322351</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>-0.267983989537246</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.01849999999999996</v>
       </c>
     </row>
@@ -910,12 +993,15 @@
         <v>0.05941281521094588</v>
       </c>
       <c r="C28" t="n">
+        <v>0.8159029166630916</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.01284170989130627</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>0.06842436444420841</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0.03170000000000028</v>
       </c>
     </row>
@@ -927,12 +1013,15 @@
         <v>0.0255667809720066</v>
       </c>
       <c r="C29" t="n">
+        <v>-0.5861149801287269</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.1306706629302942</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.4195842528506688</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.649</v>
       </c>
     </row>
@@ -944,12 +1033,15 @@
         <v>0.05342272667616665</v>
       </c>
       <c r="C30" t="n">
+        <v>0.2493232208297336</v>
+      </c>
+      <c r="D30" t="n">
         <v>-0.028908809156834</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>0.7524214023767684</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.09199999999999964</v>
       </c>
     </row>
@@ -961,12 +1053,15 @@
         <v>0.09498272250728768</v>
       </c>
       <c r="C31" t="n">
+        <v>1.153845005774112</v>
+      </c>
+      <c r="D31" t="n">
         <v>-0.06014350057353887</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>1.039797175057267</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>-0.02169999999999961</v>
       </c>
     </row>
@@ -978,12 +1073,15 @@
         <v>0.02972130793843331</v>
       </c>
       <c r="C32" t="n">
+        <v>-0.1819479719695316</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.05752678310942099</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>1.272739770373565</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>-0.1029</v>
       </c>
     </row>
@@ -995,12 +1093,15 @@
         <v>0.03078343341580503</v>
       </c>
       <c r="C33" t="n">
+        <v>0.4930580157948228</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.0383758151122772</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>1.451521725522209</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.1936999999999998</v>
       </c>
     </row>
@@ -1012,12 +1113,15 @@
         <v>0.03847080487975596</v>
       </c>
       <c r="C34" t="n">
+        <v>1.555591432591363</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.01616499963105402</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>1.58067380672664</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.2101999999999999</v>
       </c>
     </row>
@@ -1029,12 +1133,15 @@
         <v>-0.04094011129943009</v>
       </c>
       <c r="C35" t="n">
+        <v>0.4187980172067896</v>
+      </c>
+      <c r="D35" t="n">
         <v>-0.1225207143972099</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>1.667906370066774</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.1783000000000001</v>
       </c>
     </row>
@@ -1046,12 +1153,15 @@
         <v>0.02338355062862352</v>
       </c>
       <c r="C36" t="n">
+        <v>0.8168842137743937</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.0001053865155933864</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>1.720955141534208</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.4367000000000001</v>
       </c>
     </row>
@@ -1063,12 +1173,15 @@
         <v>0.02870092852638617</v>
       </c>
       <c r="C37" t="n">
+        <v>0.7924806665973172</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.1055102001621642</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>1.747496305883267</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.1396999999999995</v>
       </c>
     </row>
@@ -1080,12 +1193,15 @@
         <v>0.03613944903044164</v>
       </c>
       <c r="C38" t="n">
+        <v>0.8535889175016464</v>
+      </c>
+      <c r="D38" t="n">
         <v>-0.03506775242230692</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>1.757587980150177</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.08120000000000083</v>
       </c>
     </row>
@@ -1097,12 +1213,15 @@
         <v>0.04904762838781807</v>
       </c>
       <c r="C39" t="n">
+        <v>0.04350328690456706</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.1612019852953405</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>1.758678307687234</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.1941999999999995</v>
       </c>
     </row>
@@ -1114,12 +1233,15 @@
         <v>0.1655332103744209</v>
       </c>
       <c r="C40" t="n">
+        <v>1.341310751820846</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.08972961405122812</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>1.751903244671027</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.07570000000000032</v>
       </c>
     </row>
@@ -1131,12 +1253,15 @@
         <v>0.04161212392856406</v>
       </c>
       <c r="C41" t="n">
+        <v>-0.7491704168922197</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.07088132183319323</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>1.729133729477272</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.1884999999999994</v>
       </c>
     </row>
@@ -1148,12 +1273,15 @@
         <v>-0.001656032719802525</v>
       </c>
       <c r="C42" t="n">
+        <v>0.7967228220921108</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.1479210890608917</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>1.677709264404648</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.05069999999999997</v>
       </c>
     </row>
@@ -1165,12 +1293,15 @@
         <v>-0.04759535323307151</v>
       </c>
       <c r="C43" t="n">
+        <v>0.3860906153636101</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.2386439748684013</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>1.586395399499629</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>-0.1528</v>
       </c>
     </row>
@@ -1182,12 +1313,15 @@
         <v>-0.164320396893733</v>
       </c>
       <c r="C44" t="n">
+        <v>-0.6244957986833555</v>
+      </c>
+      <c r="D44" t="n">
         <v>-0.3176791608488553</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>1.453469383288652</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>-0.1684999999999999</v>
       </c>
     </row>
@@ -1199,12 +1333,15 @@
         <v>-0.01689239621130412</v>
       </c>
       <c r="C45" t="n">
+        <v>0.5980806200976296</v>
+      </c>
+      <c r="D45" t="n">
         <v>-1.244168805897456</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>1.28084516564364</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>-0.01489999999999991</v>
       </c>
     </row>
@@ -1216,12 +1353,15 @@
         <v>-0.01254891827970894</v>
       </c>
       <c r="C46" t="n">
+        <v>0.2122355897766326</v>
+      </c>
+      <c r="D46" t="n">
         <v>-0.3233623890223992</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>1.071317669200145</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>-0.04720000000000013</v>
       </c>
     </row>
@@ -1233,12 +1373,15 @@
         <v>-0.02224370545259902</v>
       </c>
       <c r="C47" t="n">
+        <v>0.9782400357392085</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.4213259900424943</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>0.8287847278370286</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>-0.02659999999999929</v>
       </c>
     </row>
@@ -1250,12 +1393,15 @@
         <v>0.02472278946165929</v>
       </c>
       <c r="C48" t="n">
+        <v>0.3475638655884516</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.4991886495891631</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>0.5561357721316718</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>-0.04530000000000012</v>
       </c>
     </row>
@@ -1267,12 +1413,15 @@
         <v>0.03189086555281495</v>
       </c>
       <c r="C49" t="n">
+        <v>0.6195128193914101</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.3284204925946692</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>0.25560263890263</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>-0.1831000000000005</v>
       </c>
     </row>
@@ -1284,12 +1433,15 @@
         <v>-0.01863953023522313</v>
       </c>
       <c r="C50" t="n">
+        <v>-0.2664583380846075</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.009451292169599616</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>-0.06864250679621264</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>0.01350000000000051</v>
       </c>
     </row>
@@ -1301,12 +1453,15 @@
         <v>-0.02733958728155272</v>
       </c>
       <c r="C51" t="n">
+        <v>-0.3653187090182364</v>
+      </c>
+      <c r="D51" t="n">
         <v>-0.5163901781689991</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>-0.4088463017883015</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>-0.1135999999999999</v>
       </c>
     </row>
@@ -1318,12 +1473,15 @@
         <v>0.01433582267760958</v>
       </c>
       <c r="C52" t="n">
+        <v>-0.09289456828147635</v>
+      </c>
+      <c r="D52" t="n">
         <v>-0.1404879930382618</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>-0.7502584392634404</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>-0.3706000000000005</v>
       </c>
     </row>
@@ -1335,12 +1493,15 @@
         <v>-0.02329035344052066</v>
       </c>
       <c r="C53" t="n">
+        <v>-1.032276516242803</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.04569011704540931</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>-1.066501069705339</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>-0.383</v>
       </c>
     </row>
@@ -1352,12 +1513,15 @@
         <v>-0.06048013045053224</v>
       </c>
       <c r="C54" t="n">
+        <v>-0.05555506410610533</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.02266312671638188</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>-1.327008200974245</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>-0.2141999999999999</v>
       </c>
     </row>
@@ -1369,12 +1533,15 @@
         <v>-0.0806176629199955</v>
       </c>
       <c r="C55" t="n">
+        <v>0.3850987358808844</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.002944755056835408</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>-1.506149844944282</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>-0.04079999999999995</v>
       </c>
     </row>
@@ -1386,12 +1553,15 @@
         <v>0.01012400468151853</v>
       </c>
       <c r="C56" t="n">
+        <v>0.07628899956371171</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.09978808365474923</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>-1.596243570527633</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>-0.006099999999999994</v>
       </c>
     </row>
@@ -1403,12 +1573,15 @@
         <v>0.03389794130018409</v>
       </c>
       <c r="C57" t="n">
+        <v>0.03272891341774553</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.3045305451038821</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>-1.598854768730451</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>0.01829999999999998</v>
       </c>
     </row>
@@ -1420,12 +1593,15 @@
         <v>-0.003881463042510802</v>
       </c>
       <c r="C58" t="n">
+        <v>0.2110635568269181</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.1990593399954048</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>-1.522481586959845</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0.03370000000000006</v>
       </c>
     </row>
@@ -1437,12 +1613,15 @@
         <v>0.02992406326949926</v>
       </c>
       <c r="C59" t="n">
+        <v>1.662767064770687</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.007634835767634466</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>-1.386515528141263</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>0.01609999999999978</v>
       </c>
     </row>
@@ -1454,12 +1633,15 @@
         <v>-0.008297102656324995</v>
       </c>
       <c r="C60" t="n">
+        <v>0.06558279163062508</v>
+      </c>
+      <c r="D60" t="n">
         <v>-0.1608088935848025</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>-1.212886660286827</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>0.06020000000000003</v>
       </c>
     </row>
@@ -1471,12 +1653,15 @@
         <v>-0.02731897555947693</v>
       </c>
       <c r="C61" t="n">
+        <v>-0.4831908693452291</v>
+      </c>
+      <c r="D61" t="n">
         <v>-0.07444715423213753</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>-1.022030332960799</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>-0.003099999999999881</v>
       </c>
     </row>
@@ -1488,12 +1673,15 @@
         <v>0.0006692615477268404</v>
       </c>
       <c r="C62" t="n">
+        <v>0.4267353782661409</v>
+      </c>
+      <c r="D62" t="n">
         <v>-0.08632091892463453</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>-0.8316105198996837</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>-0.05399999999999983</v>
       </c>
     </row>
@@ -1505,12 +1693,15 @@
         <v>0.005898272199358345</v>
       </c>
       <c r="C63" t="n">
+        <v>0.05627755953687696</v>
+      </c>
+      <c r="D63" t="n">
         <v>0.06923796103988789</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>-0.6572925165839294</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>-0.05810000000000004</v>
       </c>
     </row>
@@ -1522,12 +1713,15 @@
         <v>0.05519228894364048</v>
       </c>
       <c r="C64" t="n">
+        <v>0.4613388908505378</v>
+      </c>
+      <c r="D64" t="n">
         <v>0.2028520511399547</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>-0.5135327894540076</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>-0.04180000000000028</v>
       </c>
     </row>
@@ -1539,12 +1733,15 @@
         <v>0.02531615169565171</v>
       </c>
       <c r="C65" t="n">
+        <v>-0.3424736842466913</v>
+      </c>
+      <c r="D65" t="n">
         <v>0.05847191367792728</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>-0.4132596514710762</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>-0.04879999999999995</v>
       </c>
     </row>
@@ -1556,12 +1753,15 @@
         <v>-0.03527012638744509</v>
       </c>
       <c r="C66" t="n">
+        <v>0.08133749662802003</v>
+      </c>
+      <c r="D66" t="n">
         <v>0.1509233883817842</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>-0.3669873779130306</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>-0.1372</v>
       </c>
     </row>
@@ -1573,12 +1773,15 @@
         <v>0.02774885641156466</v>
       </c>
       <c r="C67" t="n">
+        <v>0.3814532568022777</v>
+      </c>
+      <c r="D67" t="n">
         <v>0.1271791658542351</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>-0.3788602747116343</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>-0.1831</v>
       </c>
     </row>
@@ -1590,12 +1793,15 @@
         <v>0.0604523284962033</v>
       </c>
       <c r="C68" t="n">
+        <v>0.7388581145087336</v>
+      </c>
+      <c r="D68" t="n">
         <v>-0.2486035141713466</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>-0.4388782634640265</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>-0.1092</v>
       </c>
     </row>
@@ -1607,12 +1813,15 @@
         <v>0.0517542082147795</v>
       </c>
       <c r="C69" t="n">
+        <v>0.4317153769046733</v>
+      </c>
+      <c r="D69" t="n">
         <v>-0.3532847320089744</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>-0.5310277706936262</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>-0.1442999999999999</v>
       </c>
     </row>
@@ -1624,12 +1833,15 @@
         <v>0.07090113036863954</v>
       </c>
       <c r="C70" t="n">
+        <v>0.7407835046242539</v>
+      </c>
+      <c r="D70" t="n">
         <v>0.02804291674618792</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>-0.6379959261109569</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>-0.1575000000000002</v>
       </c>
     </row>
@@ -1641,12 +1853,15 @@
         <v>-0.1493525628336432</v>
       </c>
       <c r="C71" t="n">
+        <v>0.4187980172067896</v>
+      </c>
+      <c r="D71" t="n">
         <v>0.1611871006578265</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>-0.7436181915702278</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>0.003300000000000303</v>
       </c>
     </row>
@@ -1658,12 +1873,15 @@
         <v>-0.1138032355159568</v>
       </c>
       <c r="C72" t="n">
+        <v>-0.4757886585323057</v>
+      </c>
+      <c r="D72" t="n">
         <v>0.2987655106135986</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>-0.8330488034376415</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>-0.1328</v>
       </c>
     </row>
@@ -1675,12 +1893,15 @@
         <v>-0.005231172681449792</v>
       </c>
       <c r="C73" t="n">
+        <v>0.06626106241878205</v>
+      </c>
+      <c r="D73" t="n">
         <v>0.07807398870075571</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>-0.8930649480507036</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>-0.2486000000000002</v>
       </c>
     </row>
@@ -1692,12 +1913,15 @@
         <v>-0.01398923677128128</v>
       </c>
       <c r="C74" t="n">
+        <v>0.6981719295525046</v>
+      </c>
+      <c r="D74" t="n">
         <v>0.1182186673259908</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>-0.9135686406323451</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>-0.02190000000000003</v>
       </c>
     </row>
@@ -1709,12 +1933,15 @@
         <v>0.02445942918881716</v>
       </c>
       <c r="C75" t="n">
+        <v>0.5991876538193885</v>
+      </c>
+      <c r="D75" t="n">
         <v>-0.104291730519345</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>-0.8871597024830535</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>0.01040000000000019</v>
       </c>
     </row>
@@ -1726,12 +1953,15 @@
         <v>-0.00467512319615615</v>
       </c>
       <c r="C76" t="n">
+        <v>1.106872187396934</v>
+      </c>
+      <c r="D76" t="n">
         <v>-0.09896130044585258</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>-0.8115868561007211</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>0.006899999999999906</v>
       </c>
     </row>
@@ -1743,12 +1973,15 @@
         <v>0.03754978740822157</v>
       </c>
       <c r="C77" t="n">
+        <v>-1.023764791336568</v>
+      </c>
+      <c r="D77" t="n">
         <v>0.0556956161817574</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>-0.6956150523548033</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>-0.003699999999999815</v>
       </c>
     </row>
@@ -1760,12 +1993,15 @@
         <v>0.02380825327089209</v>
       </c>
       <c r="C78" t="n">
+        <v>0.207949699694332</v>
+      </c>
+      <c r="D78" t="n">
         <v>0.1031528022200866</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>-0.5521584465530083</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>0.01539999999999964</v>
       </c>
     </row>
@@ -1777,12 +2013,15 @@
         <v>-0.01781970493212803</v>
       </c>
       <c r="C79" t="n">
+        <v>0.1130822471743009</v>
+      </c>
+      <c r="D79" t="n">
         <v>0.02491174147855409</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>-0.3943866476605606</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>-0.01269999999999971</v>
       </c>
     </row>
@@ -1794,12 +2033,15 @@
         <v>0.01728937677916154</v>
       </c>
       <c r="C80" t="n">
+        <v>0.04247236991394843</v>
+      </c>
+      <c r="D80" t="n">
         <v>-0.2943813819754242</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>-0.2338616486998291</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>-0.05679999999999996</v>
       </c>
     </row>
@@ -1811,12 +2053,15 @@
         <v>-0.03863206606997327</v>
       </c>
       <c r="C81" t="n">
+        <v>0.02433185676373739</v>
+      </c>
+      <c r="D81" t="n">
         <v>-0.007090332755096615</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>-0.08080297202948117</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>-0.01900000000000013</v>
       </c>
     </row>
@@ -1828,12 +2073,15 @@
         <v>0.06206078230959644</v>
       </c>
       <c r="C82" t="n">
+        <v>0.2026891555461319</v>
+      </c>
+      <c r="D82" t="n">
         <v>-0.02912699389842689</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>0.05541914705160522</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>-0.04170000000000007</v>
       </c>
     </row>
@@ -1845,12 +2093,15 @@
         <v>0.01962670831752966</v>
       </c>
       <c r="C83" t="n">
+        <v>0.4187980172067896</v>
+      </c>
+      <c r="D83" t="n">
         <v>-0.03116209160224626</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>0.1663006758844787</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>0.02000000000000002</v>
       </c>
     </row>
@@ -1862,12 +2113,15 @@
         <v>0.06777053412857281</v>
       </c>
       <c r="C84" t="n">
+        <v>0.4427022991748686</v>
+      </c>
+      <c r="D84" t="n">
         <v>-0.1295377683196987</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>0.2434884321469433</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>0.03710000000000013</v>
       </c>
     </row>
@@ -1879,12 +2133,15 @@
         <v>0.01481683144434065</v>
       </c>
       <c r="C85" t="n">
+        <v>0.3256645801235081</v>
+      </c>
+      <c r="D85" t="n">
         <v>0.1304546979583213</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>0.2798684175090216</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>0.02679999999999971</v>
       </c>
     </row>
@@ -1896,12 +2153,15 @@
         <v>0.01598270450660966</v>
       </c>
       <c r="C86" t="n">
+        <v>0.1752133233650532</v>
+      </c>
+      <c r="D86" t="n">
         <v>-0.1076840347115487</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>0.2730603344698324</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>0.003300000000000303</v>
       </c>
     </row>
@@ -1913,12 +2173,15 @@
         <v>0.06187137504892704</v>
       </c>
       <c r="C87" t="n">
+        <v>0.20239719333075</v>
+      </c>
+      <c r="D87" t="n">
         <v>0.03023088093589633</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>0.2237545053117351</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>-0.001700000000000035</v>
       </c>
     </row>
@@ -1930,12 +2193,15 @@
         <v>0.03335770504325808</v>
       </c>
       <c r="C88" t="n">
+        <v>-0.08303355379419841</v>
+      </c>
+      <c r="D88" t="n">
         <v>0.1603804876880469</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>0.1371592279873823</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>0.004299999999999748</v>
       </c>
     </row>
@@ -1947,12 +2213,15 @@
         <v>0.1032391241727995</v>
       </c>
       <c r="C89" t="n">
+        <v>-0.5015542679634777</v>
+      </c>
+      <c r="D89" t="n">
         <v>0.05371157549615912</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>0.0275222527611696</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>0.02870000000000017</v>
       </c>
     </row>
@@ -1964,12 +2233,15 @@
         <v>-0.01524060931230409</v>
       </c>
       <c r="C90" t="n">
+        <v>-0.1855095983146704</v>
+      </c>
+      <c r="D90" t="n">
         <v>-0.0594091749745312</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>-0.08656934300157459</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>0.02300000000000013</v>
       </c>
     </row>
@@ -1981,12 +2253,15 @@
         <v>-0.0302080462330494</v>
       </c>
       <c r="C91" t="n">
+        <v>0.1146241998517539</v>
+      </c>
+      <c r="D91" t="n">
         <v>0.2025361320002207</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>-0.1851778506700263</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>0.002899999999999903</v>
       </c>
     </row>
@@ -1998,12 +2273,15 @@
         <v>-0.03097076730895854</v>
       </c>
       <c r="C92" t="n">
+        <v>-0.4831530189687072</v>
+      </c>
+      <c r="D92" t="n">
         <v>0.01709898857070449</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>-0.2496286835651951</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>-0.02780000000000005</v>
       </c>
     </row>
@@ -2015,12 +2293,15 @@
         <v>0.02244002741629103</v>
       </c>
       <c r="C93" t="n">
+        <v>0.6715701127628648</v>
+      </c>
+      <c r="D93" t="n">
         <v>-0.06424898950504608</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>-0.2644325791093749</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>-0.007099999999999884</v>
       </c>
     </row>
@@ -2032,12 +2313,15 @@
         <v>0.08329991805730241</v>
       </c>
       <c r="C94" t="n">
+        <v>0.8440892989356463</v>
+      </c>
+      <c r="D94" t="n">
         <v>-0.03796198945267642</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>-0.2216176415259952</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>-0.001100000000000101</v>
       </c>
     </row>
@@ -2049,12 +2333,15 @@
         <v>0.02737110513919916</v>
       </c>
       <c r="C95" t="n">
+        <v>1.69270059494977</v>
+      </c>
+      <c r="D95" t="n">
         <v>-0.004066154246431565</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>-0.128594178137309</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2066,12 +2353,15 @@
         <v>-0.04692354032227364</v>
       </c>
       <c r="C96" t="n">
+        <v>0.0440788323913921</v>
+      </c>
+      <c r="D96" t="n">
         <v>0.142168065243</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>-0.0005201219682504643</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>-0.01160000000000005</v>
       </c>
     </row>
@@ -2083,12 +2373,15 @@
         <v>0.06986795971337845</v>
       </c>
       <c r="C97" t="n">
+        <v>-0.06008134225838901</v>
+      </c>
+      <c r="D97" t="n">
         <v>-0.04982180771392943</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>0.1437341897251976</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>-0.01459999999999972</v>
       </c>
     </row>
@@ -2100,12 +2393,15 @@
         <v>0.05887349548481513</v>
       </c>
       <c r="C98" t="n">
+        <v>1.44563434349374</v>
+      </c>
+      <c r="D98" t="n">
         <v>0.0147590583988561</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>0.2831280672448422</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>0.008399999999999963</v>
       </c>
     </row>
@@ -2117,12 +2413,15 @@
         <v>0.01070752802370833</v>
       </c>
       <c r="C99" t="n">
+        <v>0.332520829127958</v>
+      </c>
+      <c r="D99" t="n">
         <v>-0.0565125779237988</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>0.3998218425293132</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>0.01309999999999967</v>
       </c>
     </row>
@@ -2134,12 +2433,15 @@
         <v>0.08917536179794094</v>
       </c>
       <c r="C100" t="n">
+        <v>0.7963267971630827</v>
+      </c>
+      <c r="D100" t="n">
         <v>-0.1593570448262506</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>0.4849285770140987</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>0.006600000000000161</v>
       </c>
     </row>
@@ -2151,12 +2453,15 @@
         <v>0.01415871176842565</v>
       </c>
       <c r="C101" t="n">
+        <v>0.2212584208736601</v>
+      </c>
+      <c r="D101" t="n">
         <v>0.08696467271011113</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>0.5459252694099526</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>0.05750000000000011</v>
       </c>
     </row>
@@ -2168,12 +2473,15 @@
         <v>-0.06198538850363633</v>
       </c>
       <c r="C102" t="n">
+        <v>-1.168739100990468</v>
+      </c>
+      <c r="D102" t="n">
         <v>-0.01170570462253002</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>0.5961167055692052</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>0.1642999999999999</v>
       </c>
     </row>
@@ -2185,12 +2493,15 @@
         <v>-0.01729081681072486</v>
       </c>
       <c r="C103" t="n">
+        <v>-0.004318295596306143</v>
+      </c>
+      <c r="D103" t="n">
         <v>-0.1149908288445559</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>0.6459055766557142</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>0.1120000000000001</v>
       </c>
     </row>
@@ -2202,12 +2513,15 @@
         <v>0.02283347532791957</v>
       </c>
       <c r="C104" t="n">
+        <v>0.3858779002289481</v>
+      </c>
+      <c r="D104" t="n">
         <v>-0.2029243738985507</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>0.6949238842762107</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>0.03879999999999972</v>
       </c>
     </row>
@@ -2219,12 +2533,15 @@
         <v>0.005319212920907646</v>
       </c>
       <c r="C105" t="n">
+        <v>0.3865753174893349</v>
+      </c>
+      <c r="D105" t="n">
         <v>-0.06153912089962362</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>0.7380333624412039</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>0.08870000000000022</v>
       </c>
     </row>
@@ -2236,12 +2553,15 @@
         <v>0.01333736355877857</v>
       </c>
       <c r="C106" t="n">
+        <v>0.3175850588498008</v>
+      </c>
+      <c r="D106" t="n">
         <v>0.02639374375478761</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>0.7714602236945645</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>0.1221999999999999</v>
       </c>
     </row>
@@ -2253,12 +2573,15 @@
         <v>0.02172934298840179</v>
       </c>
       <c r="C107" t="n">
+        <v>1.517039684067711</v>
+      </c>
+      <c r="D107" t="n">
         <v>0.1179139555046667</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>0.7994426454105863</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>0.07120000000000015</v>
       </c>
     </row>
@@ -2270,12 +2593,15 @@
         <v>0.02655942328591721</v>
       </c>
       <c r="C108" t="n">
+        <v>0.5167512851726563</v>
+      </c>
+      <c r="D108" t="n">
         <v>-0.006359348536768427</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>0.8316205523891007</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>0.09519999999999973</v>
       </c>
     </row>
@@ -2287,12 +2613,15 @@
         <v>-0.01299857647709235</v>
       </c>
       <c r="C109" t="n">
+        <v>0.3069350654753222</v>
+      </c>
+      <c r="D109" t="n">
         <v>0.09714544132069082</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>0.880921327859685</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>0.09670000000000023</v>
       </c>
     </row>
@@ -2304,12 +2633,15 @@
         <v>0.01101954628190516</v>
       </c>
       <c r="C110" t="n">
+        <v>1.75932871739013</v>
+      </c>
+      <c r="D110" t="n">
         <v>-0.1405026547900807</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>0.9612425457334872</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>0.1164999999999998</v>
       </c>
     </row>
@@ -2321,12 +2653,15 @@
         <v>0.007243390415019313</v>
       </c>
       <c r="C111" t="n">
+        <v>0.8064553655175111</v>
+      </c>
+      <c r="D111" t="n">
         <v>-0.1565145779843122</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>1.08164856285855</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>0.1243000000000003</v>
       </c>
     </row>
@@ -2338,12 +2673,15 @@
         <v>-0.0410302630836954</v>
       </c>
       <c r="C112" t="n">
+        <v>-0.9028662881665817</v>
+      </c>
+      <c r="D112" t="n">
         <v>0.1545277370546658</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>1.238436564882583</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>0.1088999999999998</v>
       </c>
     </row>
@@ -2355,12 +2693,15 @@
         <v>-0.05739176684161151</v>
       </c>
       <c r="C113" t="n">
+        <v>-1.610491582098206</v>
+      </c>
+      <c r="D113" t="n">
         <v>0.02128791918630367</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>1.404424299768614</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>0.1665999999999999</v>
       </c>
     </row>
@@ -2372,12 +2713,15 @@
         <v>-0.01117151100745861</v>
       </c>
       <c r="C114" t="n">
+        <v>-0.05555506410610533</v>
+      </c>
+      <c r="D114" t="n">
         <v>0.01709134660523509</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>1.54452887949823</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>0.09520000000000017</v>
       </c>
     </row>
@@ -2389,12 +2733,15 @@
         <v>0.004840290226456823</v>
       </c>
       <c r="C115" t="n">
+        <v>0.3648679702123125</v>
+      </c>
+      <c r="D115" t="n">
         <v>0.01290598974152286</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>1.630716231067897</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>0.08700000000000019</v>
       </c>
     </row>
@@ -2406,12 +2753,15 @@
         <v>-0.05037523893513463</v>
       </c>
       <c r="C116" t="n">
+        <v>-0.243344750567509</v>
+      </c>
+      <c r="D116" t="n">
         <v>-0.1998179246038246</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>1.658817605385821</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>0.06769999999999987</v>
       </c>
     </row>
@@ -2423,12 +2773,15 @@
         <v>0.0002528178671425962</v>
       </c>
       <c r="C117" t="n">
+        <v>-0.4665723344072781</v>
+      </c>
+      <c r="D117" t="n">
         <v>0.2573004439908658</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>1.636397052661831</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>0.06630000000000003</v>
       </c>
     </row>
@@ -2440,12 +2793,15 @@
         <v>0.02119734637126047</v>
       </c>
       <c r="C118" t="n">
+        <v>0.4318130925092589</v>
+      </c>
+      <c r="D118" t="n">
         <v>0.1115347620000178</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>1.574849653835209</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>0.07269999999999976</v>
       </c>
     </row>
@@ -2457,12 +2813,15 @@
         <v>0.0361319174242265</v>
       </c>
       <c r="C119" t="n">
+        <v>1.015814715857211</v>
+      </c>
+      <c r="D119" t="n">
         <v>-0.01978385236498077</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>1.485211437188028</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>0.08440000000000003</v>
       </c>
     </row>
@@ -2474,12 +2833,15 @@
         <v>0.01044809251122558</v>
       </c>
       <c r="C120" t="n">
+        <v>0.5029809739419022</v>
+      </c>
+      <c r="D120" t="n">
         <v>-0.049687025579243</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>1.375493536651895</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>0.09609999999999985</v>
       </c>
     </row>
@@ -2491,12 +2853,15 @@
         <v>0.01647766772803561</v>
       </c>
       <c r="C121" t="n">
+        <v>0.7729777847281127</v>
+      </c>
+      <c r="D121" t="n">
         <v>-0.09163778234972876</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>1.250136140528646</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>0.07640000000000047</v>
       </c>
     </row>
@@ -2508,12 +2873,15 @@
         <v>0.02039322437053404</v>
       </c>
       <c r="C122" t="n">
+        <v>0.5645713752782555</v>
+      </c>
+      <c r="D122" t="n">
         <v>-0.2540517708846454</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>1.110995705569273</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>0.06839999999999957</v>
       </c>
     </row>
@@ -2525,12 +2893,15 @@
         <v>0.0007965256731701231</v>
       </c>
       <c r="C123" t="n">
+        <v>0.2150810035337791</v>
+      </c>
+      <c r="D123" t="n">
         <v>-0.1825837462714745</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>0.9629145013335894</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>0.3273999999999999</v>
       </c>
     </row>
@@ -2542,12 +2913,15 @@
         <v>0.021511045382689</v>
       </c>
       <c r="C124" t="n">
+        <v>-0.07031828465384748</v>
+      </c>
+      <c r="D124" t="n">
         <v>-0.2480251845297</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>0.8203533148378739</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>0.1981000000000002</v>
       </c>
     </row>
@@ -2559,12 +2933,15 @@
         <v>0.02513735494461677</v>
       </c>
       <c r="C125" t="n">
+        <v>0.04484938434927699</v>
+      </c>
+      <c r="D125" t="n">
         <v>-0.1029720685885795</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>0.7147353973437021</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>-0.05429999999999957</v>
       </c>
     </row>
@@ -2576,12 +2953,15 @@
         <v>0.08975327666998023</v>
       </c>
       <c r="C126" t="n">
+        <v>0.9879326651518028</v>
+      </c>
+      <c r="D126" t="n">
         <v>0.04281224599120231</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>0.6760888802225473</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>-0.04890000000000061</v>
       </c>
     </row>
@@ -2593,12 +2973,15 @@
         <v>0.01069370548558179</v>
       </c>
       <c r="C127" t="n">
+        <v>1.048887723148262</v>
+      </c>
+      <c r="D127" t="n">
         <v>0.06659711405475897</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>0.712110671601085</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>0.2099000000000002</v>
       </c>
     </row>
@@ -2610,12 +2993,15 @@
         <v>-0.003081211976353693</v>
       </c>
       <c r="C128" t="n">
+        <v>0.7675739162706918</v>
+      </c>
+      <c r="D128" t="n">
         <v>0.1273844348789173</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>0.7824856525815882</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>-0.3669000000000002</v>
       </c>
     </row>
@@ -2627,12 +3013,15 @@
         <v>0.006625953712304344</v>
       </c>
       <c r="C129" t="n">
+        <v>-0.2197021684712475</v>
+      </c>
+      <c r="D129" t="n">
         <v>-0.08605396991403307</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>0.827604234536139</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>-0.1193999999999997</v>
       </c>
     </row>
@@ -2644,12 +3033,15 @@
         <v>0.08220033557188433</v>
       </c>
       <c r="C130" t="n">
+        <v>1.084836513430165</v>
+      </c>
+      <c r="D130" t="n">
         <v>0.2317781328966936</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>0.7948021505259639</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>0.2343000000000002</v>
       </c>
     </row>
@@ -2661,12 +3053,15 @@
         <v>0.01784818030855551</v>
       </c>
       <c r="C131" t="n">
+        <v>1.199616261988012</v>
+      </c>
+      <c r="D131" t="n">
         <v>0.01803638556674729</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>0.6663508464982648</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>0.1871</v>
       </c>
     </row>
@@ -2678,12 +3073,15 @@
         <v>0.1176994271115408</v>
       </c>
       <c r="C132" t="n">
+        <v>1.662505090270905</v>
+      </c>
+      <c r="D132" t="n">
         <v>0.06701425593224687</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>0.4408114356865056</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>0.07390000000000008</v>
       </c>
     </row>
@@ -2695,12 +3093,15 @@
         <v>0.05908891637000657</v>
       </c>
       <c r="C133" t="n">
+        <v>1.688795305331503</v>
+      </c>
+      <c r="D133" t="n">
         <v>0.1516047548554705</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>0.121121505497257</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>0.08309999999999995</v>
       </c>
     </row>
@@ -2712,12 +3113,15 @@
         <v>0.01422712129013171</v>
       </c>
       <c r="C134" t="n">
+        <v>1.525603865257086</v>
+      </c>
+      <c r="D134" t="n">
         <v>-0.0360056475905073</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>-0.2904635663428579</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>0.02050000000000018</v>
       </c>
     </row>
@@ -2729,12 +3133,15 @@
         <v>-0.09000645605024093</v>
       </c>
       <c r="C135" t="n">
+        <v>-0.9509192480262385</v>
+      </c>
+      <c r="D135" t="n">
         <v>0.4522495855377048</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>-0.7939381846397531</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>0.004199999999999982</v>
       </c>
     </row>
@@ -2746,12 +3153,15 @@
         <v>-0.04192952517395376</v>
       </c>
       <c r="C136" t="n">
+        <v>-0.4924070929679836</v>
+      </c>
+      <c r="D136" t="n">
         <v>0.264983908119696</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>-1.386700759314152</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>0.05399999999999938</v>
       </c>
     </row>
@@ -2763,12 +3173,15 @@
         <v>-0.09201537997855436</v>
       </c>
       <c r="C137" t="n">
+        <v>-1.652385554532732</v>
+      </c>
+      <c r="D137" t="n">
         <v>0.4297973628004773</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>-2.052357460915921</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>0.09390000000000054</v>
       </c>
     </row>
@@ -2780,12 +3193,15 @@
         <v>-0.1444494282715505</v>
       </c>
       <c r="C138" t="n">
+        <v>-2.483930462267026</v>
+      </c>
+      <c r="D138" t="n">
         <v>0.1624725023442111</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>-2.761451274173599</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>-0.8748000000000005</v>
       </c>
     </row>
@@ -2797,12 +3213,15 @@
         <v>-0.1612285091864987</v>
       </c>
       <c r="C139" t="n">
+        <v>-1.331861398218681</v>
+      </c>
+      <c r="D139" t="n">
         <v>0.1402518635749596</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>-3.467418022681024</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>-0.9456999999999995</v>
       </c>
     </row>
@@ -2814,12 +3233,15 @@
         <v>-0.07291129343050606</v>
       </c>
       <c r="C140" t="n">
+        <v>-1.509973221688732</v>
+      </c>
+      <c r="D140" t="n">
         <v>-0.2673125584841254</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>-4.099868832030484</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>-0.8361000000000001</v>
       </c>
     </row>
@@ -2831,12 +3253,15 @@
         <v>-0.01890262496539385</v>
       </c>
       <c r="C141" t="n">
+        <v>0.3510227712985703</v>
+      </c>
+      <c r="D141" t="n">
         <v>-0.1318210637705955</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>-4.581884493700095</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>-0.5134000000000001</v>
       </c>
     </row>
@@ -2848,12 +3273,15 @@
         <v>-0.05256953333692582</v>
       </c>
       <c r="C142" t="n">
+        <v>0.07188468954462124</v>
+      </c>
+      <c r="D142" t="n">
         <v>-0.2508712117136359</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>-4.853001109647614</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>-0.3076000000000001</v>
       </c>
     </row>
@@ -2865,12 +3293,15 @@
         <v>0.04941061928461021</v>
       </c>
       <c r="C143" t="n">
+        <v>0.3045775593290223</v>
+      </c>
+      <c r="D143" t="n">
         <v>0.08004826911409424</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>-4.903428513472008</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>-0.2132000000000001</v>
       </c>
     </row>
@@ -2882,12 +3313,15 @@
         <v>-0.01213718297676003</v>
       </c>
       <c r="C144" t="n">
+        <v>0.1335049248058162</v>
+      </c>
+      <c r="D144" t="n">
         <v>0.08335031395213945</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>-4.745031156495649</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>-0.1405999999999998</v>
       </c>
     </row>
@@ -2899,12 +3333,15 @@
         <v>0.08004447997058417</v>
       </c>
       <c r="C145" t="n">
+        <v>1.086099929865103</v>
+      </c>
+      <c r="D145" t="n">
         <v>-0.04253418440810514</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>-4.398337691871124</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>-0.05380000000000007</v>
       </c>
     </row>
@@ -2916,12 +3353,15 @@
         <v>-0.007450056338830002</v>
       </c>
       <c r="C146" t="n">
+        <v>-0.4552674921680655</v>
+      </c>
+      <c r="D146" t="n">
         <v>-0.399563239977032</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>-3.89471040230136</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>-0.2529</v>
       </c>
     </row>
@@ -2933,12 +3373,15 @@
         <v>0.04716552650904582</v>
       </c>
       <c r="C147" t="n">
+        <v>0.446351234133946</v>
+      </c>
+      <c r="D147" t="n">
         <v>-0.2357528497857924</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>-3.265230378693307</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>-0.1144999999999999</v>
       </c>
     </row>
@@ -2950,12 +3393,15 @@
         <v>-0.03219384987954932</v>
       </c>
       <c r="C148" t="n">
+        <v>-0.2946210506311608</v>
+      </c>
+      <c r="D148" t="n">
         <v>0.02039811829947367</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>-2.540906378028485</v>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>-0.08840000000000003</v>
       </c>
     </row>
@@ -2967,12 +3413,15 @@
         <v>0.006962512744810745</v>
       </c>
       <c r="C149" t="n">
+        <v>-1.464337024399587</v>
+      </c>
+      <c r="D149" t="n">
         <v>-0.06945976102494313</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>-1.761909250293225</v>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>-0.03459999999999996</v>
       </c>
     </row>
@@ -2984,12 +3433,15 @@
         <v>0.05608413092527265</v>
       </c>
       <c r="C150" t="n">
+        <v>0.5168563442826901</v>
+      </c>
+      <c r="D150" t="n">
         <v>-0.0355018634803641</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
         <v>-0.9701039207040019</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>-0.0213000000000001</v>
       </c>
     </row>
@@ -3001,12 +3453,15 @@
         <v>-0.01276494256472471</v>
       </c>
       <c r="C151" t="n">
+        <v>0.01617630756332034</v>
+      </c>
+      <c r="D151" t="n">
         <v>0.09520174792663386</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>-0.2052889991101203</v>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>-0.004199999999999982</v>
       </c>
     </row>
@@ -3018,12 +3473,15 @@
         <v>0.0619910178944405</v>
       </c>
       <c r="C152" t="n">
+        <v>-0.02653122101063943</v>
+      </c>
+      <c r="D152" t="n">
         <v>-0.003848229530921485</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>0.4978566291112152</v>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>-0.0323</v>
       </c>
     </row>
@@ -3035,12 +3493,15 @@
         <v>-0.008640344795128208</v>
       </c>
       <c r="C153" t="n">
+        <v>-0.1066439314425516</v>
+      </c>
+      <c r="D153" t="n">
         <v>-0.2589737889291069</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>1.108920752287279</v>
       </c>
-      <c r="E153" t="n">
+      <c r="F153" t="n">
         <v>-0.01800000000000002</v>
       </c>
     </row>
@@ -3052,12 +3513,15 @@
         <v>0.05355627959367126</v>
       </c>
       <c r="C154" t="n">
+        <v>0.9789203865410379</v>
+      </c>
+      <c r="D154" t="n">
         <v>-0.07189072919258556</v>
       </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
         <v>1.6055186591724</v>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>-0.01669999999999994</v>
       </c>
     </row>
@@ -3069,12 +3533,15 @@
         <v>0.04897997298271317</v>
       </c>
       <c r="C155" t="n">
+        <v>1.205761044348552</v>
+      </c>
+      <c r="D155" t="n">
         <v>0.1197075587468701</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>1.983892678926313</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>-0.000299999999999967</v>
       </c>
     </row>
@@ -3086,12 +3553,15 @@
         <v>0.02055268557195244</v>
       </c>
       <c r="C156" t="n">
+        <v>0.2381623152852619</v>
+      </c>
+      <c r="D156" t="n">
         <v>-0.1178556471188898</v>
       </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
         <v>2.249195410285498</v>
       </c>
-      <c r="E156" t="n">
+      <c r="F156" t="n">
         <v>0.04179999999999995</v>
       </c>
     </row>
@@ -3103,12 +3573,15 @@
         <v>0.006875069000939149</v>
       </c>
       <c r="C157" t="n">
+        <v>-0.1569533159752723</v>
+      </c>
+      <c r="D157" t="n">
         <v>-0.02265001994404202</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
         <v>2.414295677505507</v>
       </c>
-      <c r="E157" t="n">
+      <c r="F157" t="n">
         <v>0.04110000000000003</v>
       </c>
     </row>
@@ -3120,12 +3593,15 @@
         <v>-0.03174815925180052</v>
       </c>
       <c r="C158" t="n">
+        <v>0.8992063780127069</v>
+      </c>
+      <c r="D158" t="n">
         <v>0.2193374842105598</v>
       </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
         <v>2.50670294900841</v>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>0.1212</v>
       </c>
     </row>
@@ -3137,12 +3613,15 @@
         <v>-0.002798412605286238</v>
       </c>
       <c r="C159" t="n">
+        <v>0.1095552964009983</v>
+      </c>
+      <c r="D159" t="n">
         <v>0.1121932913046212</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>2.55561462522973</v>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>0.04669999999999996</v>
       </c>
     </row>
@@ -3154,12 +3633,15 @@
         <v>-0.001835307669398212</v>
       </c>
       <c r="C160" t="n">
+        <v>0.1588045326339937</v>
+      </c>
+      <c r="D160" t="n">
         <v>-0.04262729650446949</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
         <v>2.58414489546519</v>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>-0.01500000000000001</v>
       </c>
     </row>
@@ -3171,12 +3653,15 @@
         <v>0.006718795515505249</v>
       </c>
       <c r="C161" t="n">
+        <v>-0.7805049916704832</v>
+      </c>
+      <c r="D161" t="n">
         <v>0.1083327784971506</v>
       </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
         <v>2.604637224161976</v>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>0.1172000000000001</v>
       </c>
     </row>
@@ -3188,12 +3673,15 @@
         <v>0.01650898349324503</v>
       </c>
       <c r="C162" t="n">
+        <v>0.388890111936302</v>
+      </c>
+      <c r="D162" t="n">
         <v>-0.04895706168149187</v>
       </c>
-      <c r="D162" t="n">
+      <c r="E162" t="n">
         <v>2.619864004512085</v>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>0.04430000000000001</v>
       </c>
     </row>
@@ -3205,12 +3693,15 @@
         <v>0.06608873362406076</v>
       </c>
       <c r="C163" t="n">
+        <v>1.237585555382381</v>
+      </c>
+      <c r="D163" t="n">
         <v>-0.1168997521123868</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E163" t="n">
         <v>2.624798544945417</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>-0.02029999999999998</v>
       </c>
     </row>
@@ -3222,12 +3713,15 @@
         <v>0.03905671971143221</v>
       </c>
       <c r="C164" t="n">
+        <v>1.47343113641929</v>
+      </c>
+      <c r="D164" t="n">
         <v>-0.5347217436200853</v>
       </c>
-      <c r="D164" t="n">
+      <c r="E164" t="n">
         <v>2.60877053396138</v>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>-0.004499999999999948</v>
       </c>
     </row>
@@ -3239,12 +3733,15 @@
         <v>0.03582530760181069</v>
       </c>
       <c r="C165" t="n">
+        <v>0.4301260100578297</v>
+      </c>
+      <c r="D165" t="n">
         <v>-0.3962130367662061</v>
       </c>
-      <c r="D165" t="n">
+      <c r="E165" t="n">
         <v>2.558373491170496</v>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>0.0694999999999999</v>
       </c>
     </row>
@@ -3256,12 +3753,15 @@
         <v>0.07817218104834467</v>
       </c>
       <c r="C166" t="n">
+        <v>1.242733616034641</v>
+      </c>
+      <c r="D166" t="n">
         <v>0.3803561392515615</v>
       </c>
-      <c r="D166" t="n">
+      <c r="E166" t="n">
         <v>2.461893431109896</v>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>0.08879999999999999</v>
       </c>
     </row>
@@ -3273,12 +3773,15 @@
         <v>0.01317292899490585</v>
       </c>
       <c r="C167" t="n">
+        <v>1.26179563325266</v>
+      </c>
+      <c r="D167" t="n">
         <v>0.2478546071786192</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>2.316225157176888</v>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>0.1456999999999999</v>
       </c>
     </row>
@@ -3290,12 +3793,15 @@
         <v>-0.04079179525543708</v>
       </c>
       <c r="C168" t="n">
+        <v>0.314521628721387</v>
+      </c>
+      <c r="D168" t="n">
         <v>0.1449601660344062</v>
       </c>
-      <c r="D168" t="n">
+      <c r="E168" t="n">
         <v>2.121180453132876</v>
       </c>
-      <c r="E168" t="n">
+      <c r="F168" t="n">
         <v>0.1039000000000001</v>
       </c>
     </row>
@@ -3307,12 +3813,15 @@
         <v>-0.006508284537724229</v>
       </c>
       <c r="C169" t="n">
+        <v>-0.4570263692469823</v>
+      </c>
+      <c r="D169" t="n">
         <v>0.2489002909219584</v>
       </c>
-      <c r="D169" t="n">
+      <c r="E169" t="n">
         <v>1.877354048197066</v>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>0.06349999999999989</v>
       </c>
     </row>
@@ -3324,12 +3833,15 @@
         <v>0.01721606717345914</v>
       </c>
       <c r="C170" t="n">
+        <v>0.6694481546866804</v>
+      </c>
+      <c r="D170" t="n">
         <v>-0.88391567396107</v>
       </c>
-      <c r="D170" t="n">
+      <c r="E170" t="n">
         <v>1.587556681997437</v>
       </c>
-      <c r="E170" t="n">
+      <c r="F170" t="n">
         <v>0.109</v>
       </c>
     </row>
@@ -3341,12 +3853,15 @@
         <v>0.006383807140537101</v>
       </c>
       <c r="C171" t="n">
+        <v>0.332520829127958</v>
+      </c>
+      <c r="D171" t="n">
         <v>-0.8655667850977001</v>
       </c>
-      <c r="D171" t="n">
+      <c r="E171" t="n">
         <v>1.254841068323831</v>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>-0.04549999999999987</v>
       </c>
     </row>
@@ -3358,12 +3873,15 @@
         <v>0.00894842191447065</v>
       </c>
       <c r="C172" t="n">
+        <v>0.1520265274916888</v>
+      </c>
+      <c r="D172" t="n">
         <v>0.6345505269158105</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>0.883816635549195</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>-0.01560000000000006</v>
       </c>
     </row>
@@ -3375,12 +3893,15 @@
         <v>0.0006808464545802195</v>
       </c>
       <c r="C173" t="n">
+        <v>0.3567898812456782</v>
+      </c>
+      <c r="D173" t="n">
         <v>0.5705349096453162</v>
       </c>
-      <c r="D173" t="n">
+      <c r="E173" t="n">
         <v>0.4850253461911258</v>
       </c>
-      <c r="E173" t="n">
+      <c r="F173" t="n">
         <v>0.0394000000000001</v>
       </c>
     </row>
@@ -3392,12 +3913,15 @@
         <v>0.03542406158068268</v>
       </c>
       <c r="C174" t="n">
+        <v>0.8708540318736802</v>
+      </c>
+      <c r="D174" t="n">
         <v>0.4313077430646449</v>
       </c>
-      <c r="D174" t="n">
+      <c r="E174" t="n">
         <v>0.07233793173089254</v>
       </c>
-      <c r="E174" t="n">
+      <c r="F174" t="n">
         <v>-0.09120000000000017</v>
       </c>
     </row>
@@ -3409,12 +3933,15 @@
         <v>-0.002249216682214339</v>
       </c>
       <c r="C175" t="n">
+        <v>1.061078899565082</v>
+      </c>
+      <c r="D175" t="n">
         <v>0.3995222898131897</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>-0.3377276543568009</v>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>-0.05859999999999999</v>
       </c>
     </row>
@@ -3426,12 +3953,15 @@
         <v>0.03092288106471486</v>
       </c>
       <c r="C176" t="n">
+        <v>1.827346547662057</v>
+      </c>
+      <c r="D176" t="n">
         <v>-0.1300293983768757</v>
       </c>
-      <c r="D176" t="n">
+      <c r="E176" t="n">
         <v>-0.7257717624018944</v>
       </c>
-      <c r="E176" t="n">
+      <c r="F176" t="n">
         <v>-0.2039</v>
       </c>
     </row>
@@ -3443,12 +3973,15 @@
         <v>0.02109702935141389</v>
       </c>
       <c r="C177" t="n">
+        <v>1.077970118973681</v>
+      </c>
+      <c r="D177" t="n">
         <v>-0.3279265550888423</v>
       </c>
-      <c r="D177" t="n">
+      <c r="E177" t="n">
         <v>-1.071847511443114</v>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>-0.1738999999999999</v>
       </c>
     </row>
@@ -3460,12 +3993,15 @@
         <v>0.03372652760942607</v>
       </c>
       <c r="C178" t="n">
+        <v>0.9512259687831204</v>
+      </c>
+      <c r="D178" t="n">
         <v>0.0350594897730693</v>
       </c>
-      <c r="D178" t="n">
+      <c r="E178" t="n">
         <v>-1.359494220287338</v>
       </c>
-      <c r="E178" t="n">
+      <c r="F178" t="n">
         <v>-0.1898</v>
       </c>
     </row>
@@ -3477,12 +4013,15 @@
         <v>-0.003135197246749044</v>
       </c>
       <c r="C179" t="n">
+        <v>1.386859788279171</v>
+      </c>
+      <c r="D179" t="n">
         <v>0.1072540443304978</v>
       </c>
-      <c r="D179" t="n">
+      <c r="E179" t="n">
         <v>-1.582914840671634</v>
       </c>
-      <c r="E179" t="n">
+      <c r="F179" t="n">
         <v>-0.1142000000000001</v>
       </c>
     </row>
@@ -3494,12 +4033,15 @@
         <v>-0.02474565651605865</v>
       </c>
       <c r="C180" t="n">
+        <v>-0.1124730656051121</v>
+      </c>
+      <c r="D180" t="n">
         <v>0.2203363294774839</v>
       </c>
-      <c r="D180" t="n">
+      <c r="E180" t="n">
         <v>-1.741282026613433</v>
       </c>
-      <c r="E180" t="n">
+      <c r="F180" t="n">
         <v>-0.05940000000000001</v>
       </c>
     </row>
@@ -3511,12 +4053,15 @@
         <v>-0.05199669149729047</v>
       </c>
       <c r="C181" t="n">
+        <v>-0.2228957655611374</v>
+      </c>
+      <c r="D181" t="n">
         <v>0.214685290503863</v>
       </c>
-      <c r="D181" t="n">
+      <c r="E181" t="n">
         <v>-1.837770872135547</v>
       </c>
-      <c r="E181" t="n">
+      <c r="F181" t="n">
         <v>-0.02599999999999991</v>
       </c>
     </row>
@@ -3528,12 +4073,15 @@
         <v>0.01471035180934344</v>
       </c>
       <c r="C182" t="n">
+        <v>-0.4053683335929925</v>
+      </c>
+      <c r="D182" t="n">
         <v>0.5516222142390037</v>
       </c>
-      <c r="D182" t="n">
+      <c r="E182" t="n">
         <v>-1.88337971678747</v>
       </c>
-      <c r="E182" t="n">
+      <c r="F182" t="n">
         <v>-0.1619</v>
       </c>
     </row>
@@ -3545,12 +4093,15 @@
         <v>0.04833549303014362</v>
       </c>
       <c r="C183" t="n">
+        <v>1.205888826003321</v>
+      </c>
+      <c r="D183" t="n">
         <v>0.08474554302752377</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>-1.890515575445395</v>
       </c>
-      <c r="E183" t="n">
+      <c r="F183" t="n">
         <v>-0.1646</v>
       </c>
     </row>
@@ -3562,12 +4113,15 @@
         <v>0.01759283200625816</v>
       </c>
       <c r="C184" t="n">
+        <v>1.581326141995554</v>
+      </c>
+      <c r="D184" t="n">
         <v>0.01010955769243701</v>
       </c>
-      <c r="D184" t="n">
+      <c r="E184" t="n">
         <v>-1.870330650351715</v>
       </c>
-      <c r="E184" t="n">
+      <c r="F184" t="n">
         <v>-0.08609999999999998</v>
       </c>
     </row>
@@ -3579,12 +4133,15 @@
         <v>-0.01479435706612087</v>
       </c>
       <c r="C185" t="n">
+        <v>-0.7968233739403807</v>
+      </c>
+      <c r="D185" t="n">
         <v>-0.4095493642048987</v>
       </c>
-      <c r="D185" t="n">
+      <c r="E185" t="n">
         <v>-1.832924557905002</v>
       </c>
-      <c r="E185" t="n">
+      <c r="F185" t="n">
         <v>-0.03839999999999999</v>
       </c>
     </row>
@@ -3596,12 +4153,15 @@
         <v>-0.02922657410597207</v>
       </c>
       <c r="C186" t="n">
+        <v>-0.341133554241857</v>
+      </c>
+      <c r="D186" t="n">
         <v>-0.2958627884121519</v>
       </c>
-      <c r="D186" t="n">
+      <c r="E186" t="n">
         <v>-1.784683837582435</v>
       </c>
-      <c r="E186" t="n">
+      <c r="F186" t="n">
         <v>-0.0159</v>
       </c>
     </row>
@@ -3613,12 +4173,15 @@
         <v>-0.01213844434545575</v>
       </c>
       <c r="C187" t="n">
+        <v>0.1493734841178984</v>
+      </c>
+      <c r="D187" t="n">
         <v>-0.09611421117510051</v>
       </c>
-      <c r="D187" t="n">
+      <c r="E187" t="n">
         <v>-1.726949119827914</v>
       </c>
-      <c r="E187" t="n">
+      <c r="F187" t="n">
         <v>-0.006500000000000006</v>
       </c>
     </row>
@@ -3630,12 +4193,15 @@
         <v>0.00462642214388076</v>
       </c>
       <c r="C188" t="n">
+        <v>0.3719590799563299</v>
+      </c>
+      <c r="D188" t="n">
         <v>0.06673704595408833</v>
       </c>
-      <c r="D188" t="n">
+      <c r="E188" t="n">
         <v>-1.655551335493044</v>
       </c>
-      <c r="E188" t="n">
+      <c r="F188" t="n">
         <v>0.0194</v>
       </c>
     </row>
@@ -3647,12 +4213,15 @@
         <v>0.0180448444642245</v>
       </c>
       <c r="C189" t="n">
+        <v>0.1767761921448674</v>
+      </c>
+      <c r="D189" t="n">
         <v>-0.0305360846275771</v>
       </c>
-      <c r="D189" t="n">
+      <c r="E189" t="n">
         <v>-1.563964556879327</v>
       </c>
-      <c r="E189" t="n">
+      <c r="F189" t="n">
         <v>0.01849999999999999</v>
       </c>
     </row>
@@ -3664,12 +4233,15 @@
         <v>-0.02615197906078581</v>
       </c>
       <c r="C190" t="n">
+        <v>0.07188468954462124</v>
+      </c>
+      <c r="D190" t="n">
         <v>0.1007228321240552</v>
       </c>
-      <c r="D190" t="n">
+      <c r="E190" t="n">
         <v>-1.447532855611655</v>
       </c>
-      <c r="E190" t="n">
+      <c r="F190" t="n">
         <v>-0.01729999999999998</v>
       </c>
     </row>
@@ -3681,12 +4253,15 @@
         <v>-0.02955739214883124</v>
       </c>
       <c r="C191" t="n">
+        <v>-0.6243598537747808</v>
+      </c>
+      <c r="D191" t="n">
         <v>-0.1703952620717204</v>
       </c>
-      <c r="D191" t="n">
+      <c r="E191" t="n">
         <v>-1.309246929460706</v>
       </c>
-      <c r="E191" t="n">
+      <c r="F191" t="n">
         <v>0.002799999999999997</v>
       </c>
     </row>
@@ -3698,12 +4273,15 @@
         <v>-0.03138374964926793</v>
       </c>
       <c r="C192" t="n">
+        <v>-0.5908102026830342</v>
+      </c>
+      <c r="D192" t="n">
         <v>-0.03835174028713802</v>
       </c>
-      <c r="D192" t="n">
+      <c r="E192" t="n">
         <v>-1.155185160249506</v>
       </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
         <v>-0.007700000000000012</v>
       </c>
     </row>
@@ -3715,12 +4293,15 @@
         <v>-0.01239305737551089</v>
       </c>
       <c r="C193" t="n">
+        <v>0.7338839522931906</v>
+      </c>
+      <c r="D193" t="n">
         <v>0.007273187573558337</v>
       </c>
-      <c r="D193" t="n">
+      <c r="E193" t="n">
         <v>-0.9916109084382896</v>
       </c>
-      <c r="E193" t="n">
+      <c r="F193" t="n">
         <v>0.009099999999999997</v>
       </c>
     </row>
@@ -3732,12 +4313,15 @@
         <v>0.03995367176651055</v>
       </c>
       <c r="C194" t="n">
+        <v>-0.007403492000435108</v>
+      </c>
+      <c r="D194" t="n">
         <v>-0.2189198858687699</v>
       </c>
-      <c r="D194" t="n">
+      <c r="E194" t="n">
         <v>-0.823277331392358</v>
       </c>
-      <c r="E194" t="n">
+      <c r="F194" t="n">
         <v>0.01110000000000003</v>
       </c>
     </row>
@@ -3749,12 +4333,15 @@
         <v>0.00390235363697311</v>
       </c>
       <c r="C195" t="n">
+        <v>0.1411332108994579</v>
+      </c>
+      <c r="D195" t="n">
         <v>0.03656535763064336</v>
       </c>
-      <c r="D195" t="n">
+      <c r="E195" t="n">
         <v>-0.6529163975352859</v>
       </c>
-      <c r="E195" t="n">
+      <c r="F195" t="n">
         <v>0.004499999999999976</v>
       </c>
     </row>
@@ -3766,12 +4353,15 @@
         <v>0.02240273323574105</v>
       </c>
       <c r="C196" t="n">
+        <v>0.1429992198801244</v>
+      </c>
+      <c r="D196" t="n">
         <v>0.1585141103159</v>
       </c>
-      <c r="D196" t="n">
+      <c r="E196" t="n">
         <v>-0.4811428331009893</v>
       </c>
-      <c r="E196" t="n">
+      <c r="F196" t="n">
         <v>-0.00269999999999998</v>
       </c>
     </row>
@@ -3783,12 +4373,15 @@
         <v>-0.02921196919996838</v>
       </c>
       <c r="C197" t="n">
+        <v>-1.853471485954916</v>
+      </c>
+      <c r="D197" t="n">
         <v>0.08531900932104959</v>
       </c>
-      <c r="D197" t="n">
+      <c r="E197" t="n">
         <v>-0.3065728600197382</v>
       </c>
-      <c r="E197" t="n">
+      <c r="F197" t="n">
         <v>0.002599999999999991</v>
       </c>
     </row>
@@ -3800,12 +4393,15 @@
         <v>-0.006882688465788434</v>
       </c>
       <c r="C198" t="n">
+        <v>-0.3458310299022216</v>
+      </c>
+      <c r="D198" t="n">
         <v>0.01385977627954053</v>
       </c>
-      <c r="D198" t="n">
+      <c r="E198" t="n">
         <v>-0.1294792373713882</v>
       </c>
-      <c r="E198" t="n">
+      <c r="F198" t="n">
         <v>-0.002400000000000013</v>
       </c>
     </row>
@@ -3817,12 +4413,15 @@
         <v>0.01990418726526322</v>
       </c>
       <c r="C199" t="n">
+        <v>1.20907546282929</v>
+      </c>
+      <c r="D199" t="n">
         <v>-0.1424049251436435</v>
       </c>
-      <c r="D199" t="n">
+      <c r="E199" t="n">
         <v>0.04430539292146207</v>
       </c>
-      <c r="E199" t="n">
+      <c r="F199" t="n">
         <v>0.05010000000000003</v>
       </c>
     </row>
@@ -3834,12 +4433,15 @@
         <v>-0.02098892405514441</v>
       </c>
       <c r="C200" t="n">
+        <v>0.09101123779879927</v>
+      </c>
+      <c r="D200" t="n">
         <v>0.03220347376785542</v>
       </c>
-      <c r="D200" t="n">
+      <c r="E200" t="n">
         <v>0.1992635097666451</v>
       </c>
-      <c r="E200" t="n">
+      <c r="F200" t="n">
         <v>0.01849999999999996</v>
       </c>
     </row>
@@ -3851,12 +4453,15 @@
         <v>0.01286045815043213</v>
       </c>
       <c r="C201" t="n">
+        <v>-0.6808081882101469</v>
+      </c>
+      <c r="D201" t="n">
         <v>-0.01225140856556568</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>0.3169659019638615</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>-0.003899999999999959</v>
       </c>
     </row>
@@ -3868,12 +4473,15 @@
         <v>-0.01350382081469981</v>
       </c>
       <c r="C202" t="n">
+        <v>-0.4091167188338574</v>
+      </c>
+      <c r="D202" t="n">
         <v>0.03380073159794206</v>
       </c>
-      <c r="D202" t="n">
+      <c r="E202" t="n">
         <v>0.3841875887653501</v>
       </c>
-      <c r="E202" t="n">
+      <c r="F202" t="n">
         <v>0.01719999999999999</v>
       </c>
     </row>
@@ -3885,12 +4493,15 @@
         <v>-0.01622007878703791</v>
       </c>
       <c r="C203" t="n">
+        <v>-0.2585146833777863</v>
+      </c>
+      <c r="D203" t="n">
         <v>0.2958710859164721</v>
       </c>
-      <c r="D203" t="n">
+      <c r="E203" t="n">
         <v>0.403707324983138</v>
       </c>
-      <c r="E203" t="n">
+      <c r="F203" t="n">
         <v>0.02439999999999998</v>
       </c>
     </row>
@@ -3902,12 +4513,15 @@
         <v>0.008129408875168664</v>
       </c>
       <c r="C204" t="n">
+        <v>-0.01477932116182856</v>
+      </c>
+      <c r="D204" t="n">
         <v>0.05118239207678606</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>0.3854410434724009</v>
       </c>
-      <c r="E204" t="n">
+      <c r="F204" t="n">
         <v>-0.005099999999999993</v>
       </c>
     </row>
@@ -3919,12 +4533,15 @@
         <v>0.00392562069520519</v>
       </c>
       <c r="C205" t="n">
+        <v>0.1631133702318266</v>
+      </c>
+      <c r="D205" t="n">
         <v>-0.0116636207690955</v>
       </c>
-      <c r="D205" t="n">
+      <c r="E205" t="n">
         <v>0.3409790176079674</v>
       </c>
-      <c r="E205" t="n">
+      <c r="F205" t="n">
         <v>-0.0832</v>
       </c>
     </row>
@@ -3936,12 +4553,15 @@
         <v>-0.0006329923915577851</v>
       </c>
       <c r="C206" t="n">
+        <v>-0.7999722144131027</v>
+      </c>
+      <c r="D206" t="n">
         <v>-0.162176691798754</v>
       </c>
-      <c r="D206" t="n">
+      <c r="E206" t="n">
         <v>0.2808077732710856</v>
       </c>
-      <c r="E206" t="n">
+      <c r="F206" t="n">
         <v>-0.03640000000000002</v>
       </c>
     </row>
@@ -3953,12 +4573,15 @@
         <v>-0.0007277628353552501</v>
       </c>
       <c r="C207" t="n">
+        <v>0.1360571117114517</v>
+      </c>
+      <c r="D207" t="n">
         <v>-0.2385696297616998</v>
       </c>
-      <c r="D207" t="n">
+      <c r="E207" t="n">
         <v>0.2137939412897971</v>
       </c>
-      <c r="E207" t="n">
+      <c r="F207" t="n">
         <v>-0.0134</v>
       </c>
     </row>
@@ -3970,12 +4593,15 @@
         <v>-0.005014371040592103</v>
       </c>
       <c r="C208" t="n">
+        <v>-0.05111716676591271</v>
+      </c>
+      <c r="D208" t="n">
         <v>-0.2303302785084</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>0.1477735287414461</v>
       </c>
-      <c r="E208" t="n">
+      <c r="F208" t="n">
         <v>-0.09449999999999999</v>
       </c>
     </row>
@@ -3987,12 +4613,15 @@
         <v>-0.04330807730552078</v>
       </c>
       <c r="C209" t="n">
+        <v>-0.4010066133869117</v>
+      </c>
+      <c r="D209" t="n">
         <v>-0.08486901389531563</v>
       </c>
-      <c r="D209" t="n">
+      <c r="E209" t="n">
         <v>0.09061705964175104</v>
       </c>
-      <c r="E209" t="n">
+      <c r="F209" t="n">
         <v>-0.0145</v>
       </c>
     </row>
@@ -4004,12 +4633,15 @@
         <v>-0.023623483997957</v>
       </c>
       <c r="C210" t="n">
+        <v>-0.153546252740977</v>
+      </c>
+      <c r="D210" t="n">
         <v>-0.04940355175992021</v>
       </c>
-      <c r="D210" t="n">
+      <c r="E210" t="n">
         <v>0.04935051662977585</v>
       </c>
-      <c r="E210" t="n">
+      <c r="F210" t="n">
         <v>-0.001700000000000007</v>
       </c>
     </row>
@@ -4021,12 +4653,15 @@
         <v>-0.08418631572925062</v>
       </c>
       <c r="C211" t="n">
+        <v>-0.7404818086522269</v>
+      </c>
+      <c r="D211" t="n">
         <v>0.05437801710898833</v>
       </c>
-      <c r="D211" t="n">
+      <c r="E211" t="n">
         <v>0.02864134681344055</v>
       </c>
-      <c r="E211" t="n">
+      <c r="F211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4038,12 +4673,15 @@
         <v>-0.1207997482305059</v>
       </c>
       <c r="C212" t="n">
+        <v>-1.778637006315442</v>
+      </c>
+      <c r="D212" t="n">
         <v>-0.1514038214931681</v>
       </c>
-      <c r="D212" t="n">
+      <c r="E212" t="n">
         <v>0.02814748091344299</v>
       </c>
-      <c r="E212" t="n">
+      <c r="F212" t="n">
         <v>-0.01819999999999999</v>
       </c>
     </row>
@@ -4055,12 +4693,15 @@
         <v>0.02264712175737493</v>
       </c>
       <c r="C213" t="n">
+        <v>0.5930090975409641</v>
+      </c>
+      <c r="D213" t="n">
         <v>0.3217823032880511</v>
       </c>
-      <c r="D213" t="n">
+      <c r="E213" t="n">
         <v>0.04513774654322233</v>
       </c>
-      <c r="E213" t="n">
+      <c r="F213" t="n">
         <v>-0.01450000000000001</v>
       </c>
     </row>
@@ -4072,12 +4713,15 @@
         <v>0.05028007240744792</v>
       </c>
       <c r="C214" t="n">
+        <v>0.7666765664243513</v>
+      </c>
+      <c r="D214" t="n">
         <v>-0.1486687749084037</v>
       </c>
-      <c r="D214" t="n">
+      <c r="E214" t="n">
         <v>0.07566894345520936</v>
       </c>
-      <c r="E214" t="n">
+      <c r="F214" t="n">
         <v>-0.021</v>
       </c>
     </row>
@@ -4089,12 +4733,15 @@
         <v>-0.005470835926324469</v>
       </c>
       <c r="C215" t="n">
+        <v>-0.1764418355227448</v>
+      </c>
+      <c r="D215" t="n">
         <v>-0.2932992854063679</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>0.1145237638343843</v>
       </c>
-      <c r="E215" t="n">
+      <c r="F215" t="n">
         <v>-0.0225</v>
       </c>
     </row>
@@ -4106,12 +4753,15 @@
         <v>0.06453332621093644</v>
       </c>
       <c r="C216" t="n">
+        <v>0.2875131312683799</v>
+      </c>
+      <c r="D216" t="n">
         <v>-0.02364509821723313</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E216" t="n">
         <v>0.1578941253070454</v>
       </c>
-      <c r="E216" t="n">
+      <c r="F216" t="n">
         <v>-0.0151</v>
       </c>
     </row>
@@ -4123,12 +4773,15 @@
         <v>-0.01837078448633278</v>
       </c>
       <c r="C217" t="n">
+        <v>0.1652219809354705</v>
+      </c>
+      <c r="D217" t="n">
         <v>-0.03234132922124576</v>
       </c>
-      <c r="D217" t="n">
+      <c r="E217" t="n">
         <v>0.2054923334136483</v>
       </c>
-      <c r="E217" t="n">
+      <c r="F217" t="n">
         <v>-0.0035</v>
       </c>
     </row>
@@ -4140,12 +4793,15 @@
         <v>-0.0329184086411054</v>
       </c>
       <c r="C218" t="n">
+        <v>-0.8298735305849902</v>
+      </c>
+      <c r="D218" t="n">
         <v>0.1658291015726316</v>
       </c>
-      <c r="D218" t="n">
+      <c r="E218" t="n">
         <v>0.2623679965656933</v>
       </c>
-      <c r="E218" t="n">
+      <c r="F218" t="n">
         <v>-0.004800000000000002</v>
       </c>
     </row>
@@ -4157,12 +4813,15 @@
         <v>-0.08376399002212409</v>
       </c>
       <c r="C219" t="n">
+        <v>-0.271102734057127</v>
+      </c>
+      <c r="D219" t="n">
         <v>0.2641657525413789</v>
       </c>
-      <c r="D219" t="n">
+      <c r="E219" t="n">
         <v>0.3339456378660621</v>
       </c>
-      <c r="E219" t="n">
+      <c r="F219" t="n">
         <v>-0.008999999999999998</v>
       </c>
     </row>
@@ -4174,12 +4833,15 @@
         <v>-0.02061817230655283</v>
       </c>
       <c r="C220" t="n">
+        <v>-0.2559240339646607</v>
+      </c>
+      <c r="D220" t="n">
         <v>0.1559011350538128</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>0.420441580149955</v>
       </c>
-      <c r="E220" t="n">
+      <c r="F220" t="n">
         <v>-0.009299999999999999</v>
       </c>
     </row>
@@ -4191,12 +4853,15 @@
         <v>-0.02964384637485651</v>
       </c>
       <c r="C221" t="n">
+        <v>-0.0854696323377091</v>
+      </c>
+      <c r="D221" t="n">
         <v>0.2438661117291923</v>
       </c>
-      <c r="D221" t="n">
+      <c r="E221" t="n">
         <v>0.5102772011959189</v>
       </c>
-      <c r="E221" t="n">
+      <c r="F221" t="n">
         <v>-0.0166</v>
       </c>
     </row>
@@ -4208,12 +4873,15 @@
         <v>-0.01422536716346379</v>
       </c>
       <c r="C222" t="n">
+        <v>0.04479617361790034</v>
+      </c>
+      <c r="D222" t="n">
         <v>-0.05001238783124023</v>
       </c>
-      <c r="D222" t="n">
+      <c r="E222" t="n">
         <v>0.5874466500435105</v>
       </c>
-      <c r="E222" t="n">
+      <c r="F222" t="n">
         <v>-0.034</v>
       </c>
     </row>
@@ -4225,12 +4893,15 @@
         <v>-0.08836491083643327</v>
       </c>
       <c r="C223" t="n">
+        <v>-0.3588757275361232</v>
+      </c>
+      <c r="D223" t="n">
         <v>-0.1375556178710387</v>
       </c>
-      <c r="D223" t="n">
+      <c r="E223" t="n">
         <v>0.6386979394831904</v>
       </c>
-      <c r="E223" t="n">
+      <c r="F223" t="n">
         <v>-0.0387</v>
       </c>
     </row>
@@ -4242,12 +4913,15 @@
         <v>-0.08945369017068483</v>
       </c>
       <c r="C224" t="n">
+        <v>-1.701442198916503</v>
+      </c>
+      <c r="D224" t="n">
         <v>0.2051797329882535</v>
       </c>
-      <c r="D224" t="n">
+      <c r="E224" t="n">
         <v>0.6616821522761995</v>
       </c>
-      <c r="E224" t="n">
+      <c r="F224" t="n">
         <v>-0.01980000000000001</v>
       </c>
     </row>
@@ -4259,12 +4933,15 @@
         <v>-0.01712460897156909</v>
       </c>
       <c r="C225" t="n">
+        <v>-0.8242277384497676</v>
+      </c>
+      <c r="D225" t="n">
         <v>-0.1643401119037048</v>
       </c>
-      <c r="D225" t="n">
+      <c r="E225" t="n">
         <v>0.660384723660723</v>
       </c>
-      <c r="E225" t="n">
+      <c r="F225" t="n">
         <v>-0.03750000000000001</v>
       </c>
     </row>
@@ -4276,12 +4953,15 @@
         <v>0.05750646664217296</v>
       </c>
       <c r="C226" t="n">
+        <v>-0.03104892736676135</v>
+      </c>
+      <c r="D226" t="n">
         <v>-0.03517042224503623</v>
       </c>
-      <c r="D226" t="n">
+      <c r="E226" t="n">
         <v>0.6426610450664505</v>
       </c>
-      <c r="E226" t="n">
+      <c r="F226" t="n">
         <v>-0.0449</v>
       </c>
     </row>
@@ -4293,12 +4973,15 @@
         <v>0.00654926785314025</v>
       </c>
       <c r="C227" t="n">
+        <v>-0.6164079148964774</v>
+      </c>
+      <c r="D227" t="n">
         <v>-0.08770419889522836</v>
       </c>
-      <c r="D227" t="n">
+      <c r="E227" t="n">
         <v>0.6195913803413333</v>
       </c>
-      <c r="E227" t="n">
+      <c r="F227" t="n">
         <v>-0.0207</v>
       </c>
     </row>
@@ -4310,12 +4993,15 @@
         <v>0.07830956158032976</v>
       </c>
       <c r="C228" t="n">
+        <v>0.5170020276839438</v>
+      </c>
+      <c r="D228" t="n">
         <v>0.05225533713241917</v>
       </c>
-      <c r="D228" t="n">
+      <c r="E228" t="n">
         <v>0.6013478347504098</v>
       </c>
-      <c r="E228" t="n">
+      <c r="F228" t="n">
         <v>-0.007999999999999979</v>
       </c>
     </row>
@@ -4327,12 +5013,15 @@
         <v>0.04907087718232361</v>
       </c>
       <c r="C229" t="n">
+        <v>0.7867994345458484</v>
+      </c>
+      <c r="D229" t="n">
         <v>-0.04236615008027917</v>
       </c>
-      <c r="D229" t="n">
+      <c r="E229" t="n">
         <v>0.5935333104091001</v>
       </c>
-      <c r="E229" t="n">
+      <c r="F229" t="n">
         <v>-0.01070000000000004</v>
       </c>
     </row>
@@ -4344,12 +5033,15 @@
         <v>-0.04147934320053892</v>
       </c>
       <c r="C230" t="n">
+        <v>-0.1559669968487221</v>
+      </c>
+      <c r="D230" t="n">
         <v>0.07726637321394834</v>
       </c>
-      <c r="D230" t="n">
+      <c r="E230" t="n">
         <v>0.5932643777091684</v>
       </c>
-      <c r="E230" t="n">
+      <c r="F230" t="n">
         <v>-0.02659999999999996</v>
       </c>
     </row>
@@ -4361,12 +5053,15 @@
         <v>-0.01969675382602265</v>
       </c>
       <c r="C231" t="n">
+        <v>0.2291616467996249</v>
+      </c>
+      <c r="D231" t="n">
         <v>-0.1194934178239049</v>
       </c>
-      <c r="D231" t="n">
+      <c r="E231" t="n">
         <v>0.5944100899416327</v>
       </c>
-      <c r="E231" t="n">
+      <c r="F231" t="n">
         <v>-0.003700000000000037</v>
       </c>
     </row>
@@ -4378,12 +5073,15 @@
         <v>0.03194087629100562</v>
       </c>
       <c r="C232" t="n">
+        <v>0.768540443171517</v>
+      </c>
+      <c r="D232" t="n">
         <v>-0.04147614136264703</v>
       </c>
-      <c r="D232" t="n">
+      <c r="E232" t="n">
         <v>0.5923676683845081</v>
       </c>
-      <c r="E232" t="n">
+      <c r="F232" t="n">
         <v>-0.003399999999999959</v>
       </c>
     </row>
@@ -4395,12 +5093,15 @@
         <v>0.05658155755948968</v>
       </c>
       <c r="C233" t="n">
+        <v>-0.5843907759860656</v>
+      </c>
+      <c r="D233" t="n">
         <v>-0.3669682107535031</v>
       </c>
-      <c r="D233" t="n">
+      <c r="E233" t="n">
         <v>0.5888176370159925</v>
       </c>
-      <c r="E233" t="n">
+      <c r="F233" t="n">
         <v>-0.007400000000000018</v>
       </c>
     </row>
@@ -4412,12 +5113,15 @@
         <v>-0.03328289076857427</v>
       </c>
       <c r="C234" t="n">
+        <v>0.6583694368409887</v>
+      </c>
+      <c r="D234" t="n">
         <v>-0.102013185904331</v>
       </c>
-      <c r="D234" t="n">
+      <c r="E234" t="n">
         <v>0.588426361383565</v>
       </c>
-      <c r="E234" t="n">
+      <c r="F234" t="n">
         <v>-0.003699999999999981</v>
       </c>
     </row>
@@ -4429,12 +5133,15 @@
         <v>0.07612268986341064</v>
       </c>
       <c r="C235" t="n">
+        <v>0.8526524432871163</v>
+      </c>
+      <c r="D235" t="n">
         <v>0.06590570029107856</v>
       </c>
-      <c r="D235" t="n">
+      <c r="E235" t="n">
         <v>0.5957544612653187</v>
       </c>
-      <c r="E235" t="n">
+      <c r="F235" t="n">
         <v>-0.003100000000000047</v>
       </c>
     </row>
@@ -4446,12 +5153,15 @@
         <v>0.03851396836829402</v>
       </c>
       <c r="C236" t="n">
+        <v>2.305872379214513</v>
+      </c>
+      <c r="D236" t="n">
         <v>-0.05089374949474686</v>
       </c>
-      <c r="D236" t="n">
+      <c r="E236" t="n">
         <v>0.6120365258817095</v>
       </c>
-      <c r="E236" t="n">
+      <c r="F236" t="n">
         <v>-0.009699999999999986</v>
       </c>
     </row>
@@ -4463,12 +5173,15 @@
         <v>0.007762490889174245</v>
       </c>
       <c r="C237" t="n">
+        <v>1.742557180463322</v>
+      </c>
+      <c r="D237" t="n">
         <v>0.007035456099008935</v>
       </c>
-      <c r="D237" t="n">
+      <c r="E237" t="n">
         <v>0.6360966014599789</v>
       </c>
-      <c r="E237" t="n">
+      <c r="F237" t="n">
         <v>-0.003099999999999992</v>
       </c>
     </row>
@@ -4480,12 +5193,15 @@
         <v>-0.0383340000317931</v>
       </c>
       <c r="C238" t="n">
+        <v>-1.092046976157235</v>
+      </c>
+      <c r="D238" t="n">
         <v>-0.06383233383664502</v>
       </c>
-      <c r="D238" t="n">
+      <c r="E238" t="n">
         <v>0.6647103448006675</v>
       </c>
-      <c r="E238" t="n">
+      <c r="F238" t="n">
         <v>-0.0006999999999999784</v>
       </c>
     </row>
@@ -4497,12 +5213,15 @@
         <v>-0.0155000478371301</v>
       </c>
       <c r="C239" t="n">
+        <v>-0.1682878177716063</v>
+      </c>
+      <c r="D239" t="n">
         <v>0.2866375435322249</v>
       </c>
-      <c r="D239" t="n">
+      <c r="E239" t="n">
         <v>0.6924976489599111</v>
       </c>
-      <c r="E239" t="n">
+      <c r="F239" t="n">
         <v>-0.001100000000000045</v>
       </c>
     </row>
@@ -4514,12 +5233,15 @@
         <v>-0.03016767854275848</v>
       </c>
       <c r="C240" t="n">
+        <v>-0.2087658029444661</v>
+      </c>
+      <c r="D240" t="n">
         <v>-0.02453323326956887</v>
       </c>
-      <c r="D240" t="n">
+      <c r="E240" t="n">
         <v>0.7139635917972065</v>
       </c>
-      <c r="E240" t="n">
+      <c r="F240" t="n">
         <v>0.0009000000000000119</v>
       </c>
     </row>
@@ -4531,12 +5253,15 @@
         <v>-0.06212870051091102</v>
       </c>
       <c r="C241" t="n">
+        <v>-1.416712234686202</v>
+      </c>
+      <c r="D241" t="n">
         <v>0.1794048104820232</v>
       </c>
-      <c r="D241" t="n">
+      <c r="E241" t="n">
         <v>0.7256823311366567</v>
       </c>
-      <c r="E241" t="n">
+      <c r="F241" t="n">
         <v>-0.0005000000000000004</v>
       </c>
     </row>
@@ -4548,12 +5273,15 @@
         <v>0.01860908524652682</v>
       </c>
       <c r="C242" t="n">
+        <v>-0.9407254876180104</v>
+      </c>
+      <c r="D242" t="n">
         <v>0.09989081544105778</v>
       </c>
-      <c r="D242" t="n">
+      <c r="E242" t="n">
         <v>0.7290178625273036</v>
       </c>
-      <c r="E242" t="n">
+      <c r="F242" t="n">
         <v>-0.0004000000000000115</v>
       </c>
     </row>
@@ -4565,12 +5293,15 @@
         <v>0.005506261385041178</v>
       </c>
       <c r="C243" t="n">
+        <v>0.6353983953440334</v>
+      </c>
+      <c r="D243" t="n">
         <v>0.3969715227090859</v>
       </c>
-      <c r="D243" t="n">
+      <c r="E243" t="n">
         <v>0.725962241182021</v>
       </c>
-      <c r="E243" t="n">
+      <c r="F243" t="n">
         <v>0.001300000000000023</v>
       </c>
     </row>
@@ -4582,12 +5313,15 @@
         <v>0.04640655610534949</v>
       </c>
       <c r="C244" t="n">
+        <v>0.950426827282147</v>
+      </c>
+      <c r="D244" t="n">
         <v>0.1766199975019114</v>
       </c>
-      <c r="D244" t="n">
+      <c r="E244" t="n">
         <v>0.7156697092254305</v>
       </c>
-      <c r="E244" t="n">
+      <c r="F244" t="n">
         <v>-0.0003000000000000225</v>
       </c>
     </row>
@@ -4599,12 +5333,15 @@
         <v>0.01129996714413206</v>
       </c>
       <c r="C245" t="n">
+        <v>0.5954592663099056</v>
+      </c>
+      <c r="D245" t="n">
         <v>-0.1979588936565493</v>
       </c>
-      <c r="D245" t="n">
+      <c r="E245" t="n">
         <v>0.6915411127777382</v>
       </c>
-      <c r="E245" t="n">
+      <c r="F245" t="n">
         <v>-9.999999999998899e-05</v>
       </c>
     </row>
@@ -4616,12 +5353,15 @@
         <v>0.05060256330012347</v>
       </c>
       <c r="C246" t="n">
+        <v>0.6310587172137616</v>
+      </c>
+      <c r="D246" t="n">
         <v>-0.2732871113647574</v>
       </c>
-      <c r="D246" t="n">
+      <c r="E246" t="n">
         <v>0.6452090708659597</v>
       </c>
-      <c r="E246" t="n">
+      <c r="F246" t="n">
         <v>0.0005000000000000004</v>
       </c>
     </row>
@@ -4633,12 +5373,15 @@
         <v>0.01704829387613049</v>
       </c>
       <c r="C247" t="n">
+        <v>0.5375738135577457</v>
+      </c>
+      <c r="D247" t="n">
         <v>-0.2659747794729536</v>
       </c>
-      <c r="D247" t="n">
+      <c r="E247" t="n">
         <v>0.571588122406208</v>
       </c>
-      <c r="E247" t="n">
+      <c r="F247" t="n">
         <v>0.00109999999999999</v>
       </c>
     </row>
@@ -4650,12 +5393,15 @@
         <v>0.03262589645834701</v>
       </c>
       <c r="C248" t="n">
+        <v>1.447408870446587</v>
+      </c>
+      <c r="D248" t="n">
         <v>0.04772175991681216</v>
       </c>
-      <c r="D248" t="n">
+      <c r="E248" t="n">
         <v>0.4755831580737002</v>
       </c>
-      <c r="E248" t="n">
+      <c r="F248" t="n">
         <v>-0.0005999999999999894</v>
       </c>
     </row>
@@ -4667,12 +5413,15 @@
         <v>-0.04690417694988902</v>
       </c>
       <c r="C249" t="n">
+        <v>-0.4897861625981825</v>
+      </c>
+      <c r="D249" t="n">
         <v>-0.1426268880825133</v>
       </c>
-      <c r="D249" t="n">
+      <c r="E249" t="n">
         <v>0.3662985643082983</v>
       </c>
-      <c r="E249" t="n">
+      <c r="F249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5433,15 @@
         <v>0.01034100027111151</v>
       </c>
       <c r="C250" t="n">
+        <v>-0.02413068028976895</v>
+      </c>
+      <c r="D250" t="n">
         <v>0.06768588124984455</v>
       </c>
-      <c r="D250" t="n">
+      <c r="E250" t="n">
         <v>0.2529329078652331</v>
       </c>
-      <c r="E250" t="n">
+      <c r="F250" t="n">
         <v>0.0005999999999999894</v>
       </c>
     </row>
@@ -4701,12 +5453,15 @@
         <v>0.05206584992312369</v>
       </c>
       <c r="C251" t="n">
+        <v>-0.9351878514341827</v>
+      </c>
+      <c r="D251" t="n">
         <v>-0.1293874086904219</v>
       </c>
-      <c r="D251" t="n">
+      <c r="E251" t="n">
         <v>0.141704480023197</v>
       </c>
-      <c r="E251" t="n">
+      <c r="F251" t="n">
         <v>-0.0005999999999999894</v>
       </c>
     </row>
@@ -4718,12 +5473,15 @@
         <v>0.05469825105450266</v>
       </c>
       <c r="C252" t="n">
+        <v>1.241235435530896</v>
+      </c>
+      <c r="D252" t="n">
         <v>0.04525671207353762</v>
       </c>
-      <c r="D252" t="n">
+      <c r="E252" t="n">
         <v>0.03675553020228151</v>
       </c>
-      <c r="E252" t="n">
+      <c r="F252" t="n">
         <v>0.003300000000000025</v>
       </c>
     </row>
@@ -4735,12 +5493,15 @@
         <v>0.0002597700285837945</v>
       </c>
       <c r="C253" t="n">
+        <v>0.3537552709786951</v>
+      </c>
+      <c r="D253" t="n">
         <v>0.02771542223707927</v>
       </c>
-      <c r="D253" t="n">
+      <c r="E253" t="n">
         <v>-0.05903340042889837</v>
       </c>
-      <c r="E253" t="n">
+      <c r="F253" t="n">
         <v>0.003199999999999981</v>
       </c>
     </row>
@@ -4752,12 +5513,15 @@
         <v>-0.007961202629398478</v>
       </c>
       <c r="C254" t="n">
+        <v>1.232194265152664</v>
+      </c>
+      <c r="D254" t="n">
         <v>0.3443954461463548</v>
       </c>
-      <c r="D254" t="n">
+      <c r="E254" t="n">
         <v>-0.1436223398069814</v>
       </c>
-      <c r="E254" t="n">
+      <c r="F254" t="n">
         <v>0.001300000000000023</v>
       </c>
     </row>
@@ -4769,12 +5533,15 @@
         <v>0.007777842555540815</v>
       </c>
       <c r="C255" t="n">
+        <v>0.2374185870575474</v>
+      </c>
+      <c r="D255" t="n">
         <v>0.06026436634346025</v>
       </c>
-      <c r="D255" t="n">
+      <c r="E255" t="n">
         <v>-0.2145314367817619</v>
       </c>
-      <c r="E255" t="n">
+      <c r="F255" t="n">
         <v>0.001699999999999979</v>
       </c>
     </row>
@@ -4786,12 +5553,15 @@
         <v>0.02255876762818776</v>
       </c>
       <c r="C256" t="n">
+        <v>0.5218689631728779</v>
+      </c>
+      <c r="D256" t="n">
         <v>-0.03527578839774351</v>
       </c>
-      <c r="D256" t="n">
+      <c r="E256" t="n">
         <v>-0.2683207453562986</v>
       </c>
-      <c r="E256" t="n">
+      <c r="F256" t="n">
         <v>0.0002000000000000335</v>
       </c>
     </row>
@@ -4803,12 +5573,15 @@
         <v>0.03315025854934994</v>
       </c>
       <c r="C257" t="n">
+        <v>1.262724483182076</v>
+      </c>
+      <c r="D257" t="n">
         <v>0.0724075336264005</v>
       </c>
-      <c r="D257" t="n">
+      <c r="E257" t="n">
         <v>-0.3010145383131047</v>
       </c>
-      <c r="E257" t="n">
+      <c r="F257" t="n">
         <v>0.00109999999999999</v>
       </c>
     </row>
@@ -4820,12 +5593,15 @@
         <v>-0.05492997795171473</v>
       </c>
       <c r="C258" t="n">
+        <v>0.3144731101794918</v>
+      </c>
+      <c r="D258" t="n">
         <v>0.08400797774103407</v>
       </c>
-      <c r="D258" t="n">
+      <c r="E258" t="n">
         <v>-0.3086977418156778</v>
       </c>
-      <c r="E258" t="n">
+      <c r="F258" t="n">
         <v>0.001299999999999968</v>
       </c>
     </row>
@@ -4837,12 +5613,15 @@
         <v>-0.04546770066308081</v>
       </c>
       <c r="C259" t="n">
+        <v>-0.8694698196753059</v>
+      </c>
+      <c r="D259" t="n">
         <v>-0.08795910391257203</v>
       </c>
-      <c r="D259" t="n">
+      <c r="E259" t="n">
         <v>-0.2895979970753082</v>
       </c>
-      <c r="E259" t="n">
+      <c r="F259" t="n">
         <v>0.004500000000000004</v>
       </c>
     </row>
@@ -4854,12 +5633,15 @@
         <v>0.02772067789918253</v>
       </c>
       <c r="C260" t="n">
+        <v>0.07550765189527908</v>
+      </c>
+      <c r="D260" t="n">
         <v>-0.0338897235560397</v>
       </c>
-      <c r="D260" t="n">
+      <c r="E260" t="n">
         <v>-0.2479353543107798</v>
       </c>
-      <c r="E260" t="n">
+      <c r="F260" t="n">
         <v>0.003900000000000015</v>
       </c>
     </row>
@@ -4871,12 +5653,15 @@
         <v>0.02363893046589993</v>
       </c>
       <c r="C261" t="n">
+        <v>0.6334149503745223</v>
+      </c>
+      <c r="D261" t="n">
         <v>-0.09434991182103186</v>
       </c>
-      <c r="D261" t="n">
+      <c r="E261" t="n">
         <v>-0.1912637525848915</v>
       </c>
-      <c r="E261" t="n">
+      <c r="F261" t="n">
         <v>-0.0004000000000000115</v>
       </c>
     </row>
@@ -4888,12 +5673,15 @@
         <v>0.01641059380922361</v>
       </c>
       <c r="C262" t="n">
+        <v>-0.1126172078123489</v>
+      </c>
+      <c r="D262" t="n">
         <v>-0.09093511259215729</v>
       </c>
-      <c r="D262" t="n">
+      <c r="E262" t="n">
         <v>-0.1294283211743519</v>
       </c>
-      <c r="E262" t="n">
+      <c r="F262" t="n">
         <v>-0.0007999999999999674</v>
       </c>
     </row>
@@ -4905,12 +5693,15 @@
         <v>0.02187437215880816</v>
       </c>
       <c r="C263" t="n">
+        <v>-1.633512821493976</v>
+      </c>
+      <c r="D263" t="n">
         <v>0.1108774771703678</v>
       </c>
-      <c r="D263" t="n">
+      <c r="E263" t="n">
         <v>-0.07460472177482913</v>
       </c>
-      <c r="E263" t="n">
+      <c r="F263" t="n">
         <v>-0.001300000000000023</v>
       </c>
     </row>
@@ -4922,12 +5713,15 @@
         <v>0.00360208347591584</v>
       </c>
       <c r="C264" t="n">
+        <v>0.9158945987270961</v>
+      </c>
+      <c r="D264" t="n">
         <v>-0.07415010314664161</v>
       </c>
-      <c r="D264" t="n">
+      <c r="E264" t="n">
         <v>-0.04002519449155528</v>
       </c>
-      <c r="E264" t="n">
+      <c r="F264" t="n">
         <v>-0.001400000000000012</v>
       </c>
     </row>
@@ -4939,12 +5733,15 @@
         <v>-0.05750698869050552</v>
       </c>
       <c r="C265" t="n">
+        <v>-0.7760462104920762</v>
+      </c>
+      <c r="D265" t="n">
         <v>-0.074766584916098</v>
       </c>
-      <c r="D265" t="n">
+      <c r="E265" t="n">
         <v>-0.03821631364084865</v>
       </c>
-      <c r="E265" t="n">
+      <c r="F265" t="n">
         <v>-0.01700000000000002</v>
       </c>
     </row>
@@ -4956,12 +5753,15 @@
         <v>0.0233920774416374</v>
       </c>
       <c r="C266" t="n">
+        <v>-0.9506091267819095</v>
+      </c>
+      <c r="D266" t="n">
         <v>-0.1680965183681123</v>
       </c>
-      <c r="D266" t="n">
+      <c r="E266" t="n">
         <v>-0.07780262508481073</v>
       </c>
-      <c r="E266" t="n">
+      <c r="F266" t="n">
         <v>-0.03599999999999998</v>
       </c>
     </row>
@@ -4973,12 +5773,15 @@
         <v>-0.01133053611041923</v>
       </c>
       <c r="C267" t="n">
+        <v>0.1414988035159936</v>
+      </c>
+      <c r="D267" t="n">
         <v>0.02533842124455821</v>
       </c>
-      <c r="D267" t="n">
+      <c r="E267" t="n">
         <v>-0.1635106556098442</v>
       </c>
-      <c r="E267" t="n">
+      <c r="F267" t="n">
         <v>-0.0428</v>
       </c>
     </row>
@@ -4990,12 +5793,15 @@
         <v>0.02679973119321755</v>
       </c>
       <c r="C268" t="n">
+        <v>-0.2399593381622545</v>
+      </c>
+      <c r="D268" t="n">
         <v>-0.09381731136302576</v>
       </c>
-      <c r="D268" t="n">
+      <c r="E268" t="n">
         <v>-0.2932269109720664</v>
       </c>
-      <c r="E268" t="n">
+      <c r="F268" t="n">
         <v>-0.00990000000000002</v>
       </c>
     </row>
@@ -5007,12 +5813,15 @@
         <v>-0.006487345689665247</v>
       </c>
       <c r="C269" t="n">
+        <v>0.1572017940428161</v>
+      </c>
+      <c r="D269" t="n">
         <v>0.0882991158773226</v>
       </c>
-      <c r="D269" t="n">
+      <c r="E269" t="n">
         <v>-0.4517808765307052</v>
       </c>
-      <c r="E269" t="n">
+      <c r="F269" t="n">
         <v>0.004700000000000037</v>
       </c>
     </row>
@@ -5024,12 +5833,15 @@
         <v>0.009330865273943445</v>
       </c>
       <c r="C270" t="n">
+        <v>0.3232332675874972</v>
+      </c>
+      <c r="D270" t="n">
         <v>0.0750260255211002</v>
       </c>
-      <c r="D270" t="n">
+      <c r="E270" t="n">
         <v>-0.6197791560565769</v>
       </c>
-      <c r="E270" t="n">
+      <c r="F270" t="n">
         <v>0.0116</v>
       </c>
     </row>
@@ -5041,12 +5853,15 @@
         <v>0.01415588983671068</v>
       </c>
       <c r="C271" t="n">
+        <v>0.6221067740129094</v>
+      </c>
+      <c r="D271" t="n">
         <v>0.05842915064871777</v>
       </c>
-      <c r="D271" t="n">
+      <c r="E271" t="n">
         <v>-0.7804108492154072</v>
       </c>
-      <c r="E271" t="n">
+      <c r="F271" t="n">
         <v>0.006599999999999995</v>
       </c>
     </row>
@@ -5058,12 +5873,15 @@
         <v>-0.01356450627767902</v>
       </c>
       <c r="C272" t="n">
+        <v>-0.01344806898178064</v>
+      </c>
+      <c r="D272" t="n">
         <v>-0.09006929112924042</v>
       </c>
-      <c r="D272" t="n">
+      <c r="E272" t="n">
         <v>-0.925617311374527</v>
       </c>
-      <c r="E272" t="n">
+      <c r="F272" t="n">
         <v>0.003599999999999992</v>
       </c>
     </row>
@@ -5075,12 +5893,15 @@
         <v>-0.04643696833377664</v>
       </c>
       <c r="C273" t="n">
+        <v>-0.3882020714589984</v>
+      </c>
+      <c r="D273" t="n">
         <v>-0.1393250484620058</v>
       </c>
-      <c r="D273" t="n">
+      <c r="E273" t="n">
         <v>-1.051562108493975</v>
       </c>
-      <c r="E273" t="n">
+      <c r="F273" t="n">
         <v>-0.01769999999999999</v>
       </c>
     </row>
@@ -5092,12 +5913,15 @@
         <v>-0.1411245783993085</v>
       </c>
       <c r="C274" t="n">
+        <v>-1.062342970848817</v>
+      </c>
+      <c r="D274" t="n">
         <v>-0.01351679853499623</v>
       </c>
-      <c r="D274" t="n">
+      <c r="E274" t="n">
         <v>-16.30033001283824</v>
       </c>
-      <c r="E274" t="n">
+      <c r="F274" t="n">
         <v>-0.007800000000000029</v>
       </c>
     </row>
@@ -5109,12 +5933,15 @@
         <v>-0.1315797008149717</v>
       </c>
       <c r="C275" t="n">
+        <v>-2.670250684727105</v>
+      </c>
+      <c r="D275" t="n">
         <v>0.1406200201120797</v>
       </c>
-      <c r="D275" t="n">
+      <c r="E275" t="n">
         <v>-15.99418941355033</v>
       </c>
-      <c r="E275" t="n">
+      <c r="F275" t="n">
         <v>0.1626</v>
       </c>
     </row>
@@ -5126,12 +5953,15 @@
         <v>-0.02704427332486681</v>
       </c>
       <c r="C276" t="n">
+        <v>-1.392211567644708</v>
+      </c>
+      <c r="D276" t="n">
         <v>0.1861189193579285</v>
       </c>
-      <c r="D276" t="n">
+      <c r="E276" t="n">
         <v>-15.85830753762174</v>
       </c>
-      <c r="E276" t="n">
+      <c r="F276" t="n">
         <v>-0.01800000000000002</v>
       </c>
     </row>
@@ -5143,12 +5973,15 @@
         <v>0.05016227475010204</v>
       </c>
       <c r="C277" t="n">
+        <v>-0.1323487347441699</v>
+      </c>
+      <c r="D277" t="n">
         <v>0.02183665907797352</v>
       </c>
-      <c r="D277" t="n">
+      <c r="E277" t="n">
         <v>-12.38352914329885</v>
       </c>
-      <c r="E277" t="n">
+      <c r="F277" t="n">
         <v>-0.104</v>
       </c>
     </row>
@@ -5160,12 +5993,15 @@
         <v>0.03114614608395794</v>
       </c>
       <c r="C278" t="n">
+        <v>-0.6354430250327781</v>
+      </c>
+      <c r="D278" t="n">
         <v>1.281058494470891</v>
       </c>
-      <c r="D278" t="n">
+      <c r="E278" t="n">
         <v>-8.99857223597591</v>
       </c>
-      <c r="E278" t="n">
+      <c r="F278" t="n">
         <v>-0.06809999999999999</v>
       </c>
     </row>
@@ -5177,12 +6013,15 @@
         <v>-0.01420059558140885</v>
       </c>
       <c r="C279" t="n">
+        <v>0.03025359646935399</v>
+      </c>
+      <c r="D279" t="n">
         <v>-0.2307276256942662</v>
       </c>
-      <c r="D279" t="n">
+      <c r="E279" t="n">
         <v>-5.69498612266468</v>
       </c>
-      <c r="E279" t="n">
+      <c r="F279" t="n">
         <v>-0.03560000000000002</v>
       </c>
     </row>
@@ -5194,12 +6033,15 @@
         <v>-0.04411878189795093</v>
       </c>
       <c r="C280" t="n">
+        <v>0.2488725957658033</v>
+      </c>
+      <c r="D280" t="n">
         <v>-1.032810234965737</v>
       </c>
-      <c r="D280" t="n">
+      <c r="E280" t="n">
         <v>-5.706430126856787</v>
       </c>
-      <c r="E280" t="n">
+      <c r="F280" t="n">
         <v>-0.01169999999999999</v>
       </c>
     </row>
@@ -5211,12 +6053,15 @@
         <v>-0.008798522668806541</v>
       </c>
       <c r="C281" t="n">
+        <v>1.200826394584809</v>
+      </c>
+      <c r="D281" t="n">
         <v>-0.61374657649137</v>
       </c>
-      <c r="D281" t="n">
+      <c r="E281" t="n">
         <v>-5.70438377370257</v>
       </c>
-      <c r="E281" t="n">
+      <c r="F281" t="n">
         <v>-0.01769999999999999</v>
       </c>
     </row>
@@ -5228,12 +6073,15 @@
         <v>0.0173786013303161</v>
       </c>
       <c r="C282" t="n">
+        <v>0.4363298430535067</v>
+      </c>
+      <c r="D282" t="n">
         <v>-0.2710442239872123</v>
       </c>
-      <c r="D282" t="n">
+      <c r="E282" t="n">
         <v>-5.703382345784291</v>
       </c>
-      <c r="E282" t="n">
+      <c r="F282" t="n">
         <v>-0.01180000000000003</v>
       </c>
     </row>
@@ -5245,12 +6093,15 @@
         <v>0.06787337340207511</v>
       </c>
       <c r="C283" t="n">
+        <v>0.4408263298429915</v>
+      </c>
+      <c r="D283" t="n">
         <v>-0.1343869037287267</v>
       </c>
-      <c r="D283" t="n">
+      <c r="E283" t="n">
         <v>-5.160472301162677</v>
       </c>
-      <c r="E283" t="n">
+      <c r="F283" t="n">
         <v>-0.01719999999999999</v>
       </c>
     </row>
@@ -5262,12 +6113,15 @@
         <v>0.03851910276861492</v>
       </c>
       <c r="C284" t="n">
+        <v>1.360664378106602</v>
+      </c>
+      <c r="D284" t="n">
         <v>0.772622154351926</v>
       </c>
-      <c r="D284" t="n">
+      <c r="E284" t="n">
         <v>-4.637576943095123</v>
       </c>
-      <c r="E284" t="n">
+      <c r="F284" t="n">
         <v>-0.009099999999999997</v>
       </c>
     </row>
@@ -5279,12 +6133,15 @@
         <v>0.06863119949037877</v>
       </c>
       <c r="C285" t="n">
+        <v>0.4686213175023823</v>
+      </c>
+      <c r="D285" t="n">
         <v>1.05555427417121</v>
       </c>
-      <c r="D285" t="n">
+      <c r="E285" t="n">
         <v>-4.13088075102106</v>
       </c>
-      <c r="E285" t="n">
+      <c r="F285" t="n">
         <v>0.006099999999999994</v>
       </c>
     </row>
@@ -5296,12 +6153,15 @@
         <v>0.0429928771059398</v>
       </c>
       <c r="C286" t="n">
+        <v>1.023366653678437</v>
+      </c>
+      <c r="D286" t="n">
         <v>0.06337606817167975</v>
       </c>
-      <c r="D286" t="n">
+      <c r="E286" t="n">
         <v>11.72015568906852</v>
       </c>
-      <c r="E286" t="n">
+      <c r="F286" t="n">
         <v>0.002000000000000002</v>
       </c>
     </row>
@@ -5313,12 +6173,15 @@
         <v>-0.00350617200208525</v>
       </c>
       <c r="C287" t="n">
+        <v>1.922585753660844</v>
+      </c>
+      <c r="D287" t="n">
         <v>-0.3484446830983077</v>
       </c>
-      <c r="D287" t="n">
+      <c r="E287" t="n">
         <v>12.02516338487447</v>
       </c>
-      <c r="E287" t="n">
+      <c r="F287" t="n">
         <v>0.0009000000000000119</v>
       </c>
     </row>
@@ -5330,12 +6193,15 @@
         <v>0.0117742994501473</v>
       </c>
       <c r="C288" t="n">
+        <v>0.7197459746234536</v>
+      </c>
+      <c r="D288" t="n">
         <v>-0.532155403471449</v>
       </c>
-      <c r="D288" t="n">
+      <c r="E288" t="n">
         <v>12.51425787151854</v>
       </c>
-      <c r="E288" t="n">
+      <c r="F288" t="n">
         <v>-0.001900000000000013</v>
       </c>
     </row>
@@ -5347,12 +6213,15 @@
         <v>0.03537075935311496</v>
       </c>
       <c r="C289" t="n">
+        <v>-0.3969171625850088</v>
+      </c>
+      <c r="D289" t="n">
         <v>-0.4289820745541146</v>
       </c>
-      <c r="D289" t="n">
+      <c r="E289" t="n">
         <v>9.760551188884214</v>
       </c>
-      <c r="E289" t="n">
+      <c r="F289" t="n">
         <v>-0.002800000000000025</v>
       </c>
     </row>
@@ -5364,12 +6233,15 @@
         <v>0.02552544444903759</v>
       </c>
       <c r="C290" t="n">
+        <v>2.130701957832137</v>
+      </c>
+      <c r="D290" t="n">
         <v>-1.355236520056327</v>
       </c>
-      <c r="D290" t="n">
+      <c r="E290" t="n">
         <v>7.114674484563999</v>
       </c>
-      <c r="E290" t="n">
+      <c r="F290" t="n">
         <v>-0.001899999999999902</v>
       </c>
     </row>
@@ -5381,12 +6253,15 @@
         <v>-0.009110602705655779</v>
       </c>
       <c r="C291" t="n">
+        <v>1.1518244562855</v>
+      </c>
+      <c r="D291" t="n">
         <v>0.06921927511064772</v>
       </c>
-      <c r="D291" t="n">
+      <c r="E291" t="n">
         <v>4.561698273500792</v>
       </c>
-      <c r="E291" t="n">
+      <c r="F291" t="n">
         <v>-0.002800000000000025</v>
       </c>
     </row>
@@ -5398,12 +6273,15 @@
         <v>0.03236938561156677</v>
       </c>
       <c r="C292" t="n">
+        <v>0.4995444296199913</v>
+      </c>
+      <c r="D292" t="n">
         <v>0.4522552486851173</v>
       </c>
-      <c r="D292" t="n">
+      <c r="E292" t="n">
         <v>4.846150747373557</v>
       </c>
-      <c r="E292" t="n">
+      <c r="F292" t="n">
         <v>0.002599999999999936</v>
       </c>
     </row>
@@ -5415,12 +6293,15 @@
         <v>0.09301917854290487</v>
       </c>
       <c r="C293" t="n">
+        <v>3.435460372633958</v>
+      </c>
+      <c r="D293" t="n">
         <v>0.08944775699251525</v>
       </c>
-      <c r="D293" t="n">
+      <c r="E293" t="n">
         <v>5.092847251639387</v>
       </c>
-      <c r="E293" t="n">
+      <c r="F293" t="n">
         <v>-0.004799999999999915</v>
       </c>
     </row>
@@ -5432,12 +6313,15 @@
         <v>0.005125864408031866</v>
       </c>
       <c r="C294" t="n">
+        <v>3.259665667583977</v>
+      </c>
+      <c r="D294" t="n">
         <v>-0.05260985160717201</v>
       </c>
-      <c r="D294" t="n">
+      <c r="E294" t="n">
         <v>5.343627860512257</v>
       </c>
-      <c r="E294" t="n">
+      <c r="F294" t="n">
         <v>-0.01760000000000006</v>
       </c>
     </row>
@@ -5449,12 +6333,15 @@
         <v>-0.01366868794146558</v>
       </c>
       <c r="C295" t="n">
+        <v>0.745165894106492</v>
+      </c>
+      <c r="D295" t="n">
         <v>-0.06327690037533185</v>
       </c>
-      <c r="D295" t="n">
+      <c r="E295" t="n">
         <v>5.042317274973929</v>
       </c>
-      <c r="E295" t="n">
+      <c r="F295" t="n">
         <v>-0.01459999999999995</v>
       </c>
     </row>
@@ -5466,12 +6353,15 @@
         <v>0.06788743906164107</v>
       </c>
       <c r="C296" t="n">
+        <v>6.504835765434702</v>
+      </c>
+      <c r="D296" t="n">
         <v>-0.4894295495748203</v>
       </c>
-      <c r="D296" t="n">
+      <c r="E296" t="n">
         <v>4.753641107127038</v>
       </c>
-      <c r="E296" t="n">
+      <c r="F296" t="n">
         <v>0.02189999999999992</v>
       </c>
     </row>
@@ -5483,12 +6373,15 @@
         <v>0.08092757112864835</v>
       </c>
       <c r="C297" t="n">
+        <v>4.294673415675021</v>
+      </c>
+      <c r="D297" t="n">
         <v>-0.4616659922182604</v>
       </c>
-      <c r="D297" t="n">
+      <c r="E297" t="n">
         <v>4.481556425656219</v>
       </c>
-      <c r="E297" t="n">
+      <c r="F297" t="n">
         <v>0.02860000000000007</v>
       </c>
     </row>
@@ -5500,12 +6393,15 @@
         <v>0.224095154720156</v>
       </c>
       <c r="C298" t="n">
+        <v>3.644995380740035</v>
+      </c>
+      <c r="D298" t="n">
         <v>-0.5393400996190132</v>
       </c>
-      <c r="D298" t="n">
+      <c r="E298" t="n">
         <v>4.012784532211633</v>
       </c>
-      <c r="E298" t="n">
+      <c r="F298" t="n">
         <v>0.03609999999999997</v>
       </c>
     </row>
@@ -5517,12 +6413,15 @@
         <v>-0.004991299150789885</v>
       </c>
       <c r="C299" t="n">
+        <v>-2.931843171777437</v>
+      </c>
+      <c r="D299" t="n">
         <v>-0.437299812874899</v>
       </c>
-      <c r="D299" t="n">
+      <c r="E299" t="n">
         <v>3.550028616053247</v>
       </c>
-      <c r="E299" t="n">
+      <c r="F299" t="n">
         <v>0.04749999999999999</v>
       </c>
     </row>
@@ -5534,12 +6433,15 @@
         <v>0.02520828537059305</v>
       </c>
       <c r="C300" t="n">
+        <v>1.844092211168391</v>
+      </c>
+      <c r="D300" t="n">
         <v>0.02168987119549362</v>
       </c>
-      <c r="D300" t="n">
+      <c r="E300" t="n">
         <v>3.073262946449429</v>
       </c>
-      <c r="E300" t="n">
+      <c r="F300" t="n">
         <v>0.06220000000000003</v>
       </c>
     </row>
@@ -5551,12 +6453,15 @@
         <v>0.109590949350407</v>
       </c>
       <c r="C301" t="n">
+        <v>2.998183621062722</v>
+      </c>
+      <c r="D301" t="n">
         <v>0.1733090047255241</v>
       </c>
-      <c r="D301" t="n">
+      <c r="E301" t="n">
         <v>2.488756695297845</v>
       </c>
-      <c r="E301" t="n">
+      <c r="F301" t="n">
         <v>0.1465</v>
       </c>
     </row>
@@ -5568,12 +6473,15 @@
         <v>-0.03180272714176713</v>
       </c>
       <c r="C302" t="n">
+        <v>-0.2136426689272497</v>
+      </c>
+      <c r="D302" t="n">
         <v>0.0121577046403345</v>
       </c>
-      <c r="D302" t="n">
+      <c r="E302" t="n">
         <v>1.875386260225831</v>
       </c>
-      <c r="E302" t="n">
+      <c r="F302" t="n">
         <v>0.2758</v>
       </c>
     </row>
@@ -5585,12 +6493,15 @@
         <v>-0.08698118049172443</v>
       </c>
       <c r="C303" t="n">
+        <v>2.092509940146314</v>
+      </c>
+      <c r="D303" t="n">
         <v>0.2528790311118111</v>
       </c>
-      <c r="D303" t="n">
+      <c r="E303" t="n">
         <v>1.246449518033099</v>
       </c>
-      <c r="E303" t="n">
+      <c r="F303" t="n">
         <v>0.3581</v>
       </c>
     </row>
@@ -5602,12 +6513,15 @@
         <v>-0.0009574404538854608</v>
       </c>
       <c r="C304" t="n">
+        <v>0.673348625919612</v>
+      </c>
+      <c r="D304" t="n">
         <v>0.2513016600696142</v>
       </c>
-      <c r="D304" t="n">
+      <c r="E304" t="n">
         <v>1.098429982381433</v>
       </c>
-      <c r="E304" t="n">
+      <c r="F304" t="n">
         <v>0.6161999999999999</v>
       </c>
     </row>
@@ -5619,12 +6533,15 @@
         <v>0.0573769397210242</v>
       </c>
       <c r="C305" t="n">
+        <v>15.3911691229224</v>
+      </c>
+      <c r="D305" t="n">
         <v>0.2529408416240016</v>
       </c>
-      <c r="D305" t="n">
+      <c r="E305" t="n">
         <v>0.9806407879886514</v>
       </c>
-      <c r="E305" t="n">
+      <c r="F305" t="n">
         <v>0.4168000000000001</v>
       </c>
     </row>
@@ -5636,12 +6553,15 @@
         <v>-0.08875880573039208</v>
       </c>
       <c r="C306" t="n">
+        <v>1.522963534835142</v>
+      </c>
+      <c r="D306" t="n">
         <v>0.3324442630450529</v>
       </c>
-      <c r="D306" t="n">
+      <c r="E306" t="n">
         <v>0.8633798504637191</v>
       </c>
-      <c r="E306" t="n">
+      <c r="F306" t="n">
         <v>0.3975</v>
       </c>
     </row>
@@ -5653,12 +6573,15 @@
         <v>-0.09926405391989412</v>
       </c>
       <c r="C307" t="n">
+        <v>-1.215985119521701</v>
+      </c>
+      <c r="D307" t="n">
         <v>0.4658064742506691</v>
       </c>
-      <c r="D307" t="n">
+      <c r="E307" t="n">
         <v>0.751657933408989</v>
       </c>
-      <c r="E307" t="n">
+      <c r="F307" t="n">
         <v>0.2383</v>
       </c>
     </row>
@@ -5670,12 +6593,15 @@
         <v>0.008295474531885283</v>
       </c>
       <c r="C308" t="n">
+        <v>-2.986263443505699</v>
+      </c>
+      <c r="D308" t="n">
         <v>0.5197127919371312</v>
       </c>
-      <c r="D308" t="n">
+      <c r="E308" t="n">
         <v>0.6276309537710745</v>
       </c>
-      <c r="E308" t="n">
+      <c r="F308" t="n">
         <v>0.2814000000000001</v>
       </c>
     </row>
@@ -5687,12 +6613,15 @@
         <v>-0.0662384432832086</v>
       </c>
       <c r="C309" t="n">
+        <v>-1.688185411997534</v>
+      </c>
+      <c r="D309" t="n">
         <v>0.8251212935017948</v>
       </c>
-      <c r="D309" t="n">
+      <c r="E309" t="n">
         <v>0.4677287197340618</v>
       </c>
-      <c r="E309" t="n">
+      <c r="F309" t="n">
         <v>0.2953999999999999</v>
       </c>
     </row>
@@ -5704,12 +6633,15 @@
         <v>-0.03322564762832059</v>
       </c>
       <c r="C310" t="n">
+        <v>-5.021954581227561</v>
+      </c>
+      <c r="D310" t="n">
         <v>0.6212615795766552</v>
       </c>
-      <c r="D310" t="n">
+      <c r="E310" t="n">
         <v>0.2606865075994058</v>
       </c>
-      <c r="E310" t="n">
+      <c r="F310" t="n">
         <v>0.2703000000000002</v>
       </c>
     </row>
@@ -5721,12 +6653,15 @@
         <v>-0.04864737692740295</v>
       </c>
       <c r="C311" t="n">
+        <v>-0.1635394421108494</v>
+      </c>
+      <c r="D311" t="n">
         <v>0.6181902154841558</v>
       </c>
-      <c r="D311" t="n">
+      <c r="E311" t="n">
         <v>0.02817643401549219</v>
       </c>
-      <c r="E311" t="n">
+      <c r="F311" t="n">
         <v>0.2563999999999997</v>
       </c>
     </row>
@@ -5738,12 +6673,15 @@
         <v>-0.06852634314559758</v>
       </c>
       <c r="C312" t="n">
+        <v>-0.2087658029444661</v>
+      </c>
+      <c r="D312" t="n">
         <v>0.4688971096932472</v>
       </c>
-      <c r="D312" t="n">
+      <c r="E312" t="n">
         <v>-0.1946472307570168</v>
       </c>
-      <c r="E312" t="n">
+      <c r="F312" t="n">
         <v>0.1994000000000002</v>
       </c>
     </row>
@@ -5755,12 +6693,15 @@
         <v>0.01777560095993813</v>
       </c>
       <c r="C313" t="n">
+        <v>-1.965929488695739</v>
+      </c>
+      <c r="D313" t="n">
         <v>0.3944778291016259</v>
       </c>
-      <c r="D313" t="n">
+      <c r="E313" t="n">
         <v>-0.3766620928728592</v>
       </c>
-      <c r="E313" t="n">
+      <c r="F313" t="n">
         <v>0.1694999999999998</v>
       </c>
     </row>
